--- a/PhoenixCI/Excel_Template/30780.xlsx
+++ b/PhoenixCI/Excel_Template/30780.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6F6167-DC9A-40C8-982B-B6BDFD8E78FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{825A5003-451A-4084-AF19-7EA128A650A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="附表1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2218,18 +2217,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
@@ -2241,6 +2246,9 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2251,14 +2259,19 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2266,20 +2279,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -2301,6 +2318,10 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2311,14 +2332,20 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2326,22 +2353,25 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="25" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="25" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
@@ -2350,151 +2380,152 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="7" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="191" fontId="15" fillId="0" borderId="3" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="7" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="191" fontId="15" fillId="0" borderId="3" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="8" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="191" fontId="15" fillId="0" borderId="9" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="8" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="191" fontId="15" fillId="0" borderId="9" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="11" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="12" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="191" fontId="15" fillId="0" borderId="13" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="11" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="12" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="191" fontId="15" fillId="0" borderId="13" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="191" fontId="15" fillId="0" borderId="13" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="6" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="191" fontId="15" fillId="0" borderId="15" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="191" fontId="15" fillId="0" borderId="13" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="6" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="191" fontId="15" fillId="0" borderId="15" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="16" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="191" fontId="15" fillId="0" borderId="17" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="16" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="191" fontId="15" fillId="0" borderId="17" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="18" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="18" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="18" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="18" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="18" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="18" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="178" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2508,13 +2539,23 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2541,11 +2582,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2557,19 +2598,25 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2580,22 +2627,24 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2608,7 +2657,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2636,42 +2685,69 @@
     <xf numFmtId="177" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2691,19 +2767,19 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2732,7 +2808,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2764,10 +2844,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2776,10 +2856,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2788,20 +2868,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3319,1058 +3399,1105 @@
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.75" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="10" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="13" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.375" style="15" customWidth="1"/>
     <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.25" style="12" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1"/>
-    <col min="18" max="18" width="12.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="15" max="15" width="13.25" style="16" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="3"/>
+    <col min="18" max="18" width="12.125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="11.125" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="107"/>
-      <c r="B1" s="108"/>
-      <c r="C1" s="109">
+      <c r="A1" s="121"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="123">
         <v>201507</v>
       </c>
-      <c r="D1" s="109">
+      <c r="D1" s="123">
         <v>201508</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="110"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="108"/>
-    </row>
-    <row r="2" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="107"/>
-      <c r="B2" s="169" t="str">
+      <c r="G1" s="124"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="126"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="122"/>
+    </row>
+    <row r="2" spans="1:29" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="128"/>
+      <c r="B2" s="201" t="str">
         <f>"附表1　期貨暨選擇權最近2個月("&amp;INT(MID(C1,5,2))&amp;"月份及"&amp;INT(MID(D1,5,2))&amp;"月份)市場成交量變動比較表"&amp;IF(F1="1","(盤後交易時段)",IF(F1="0","(一般交易時段)",""))</f>
         <v>附表1　期貨暨選擇權最近2個月(7月份及8月份)市場成交量變動比較表</v>
       </c>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
-      <c r="K2" s="170"/>
-      <c r="L2" s="170"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="112" t="s">
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
+      <c r="N2" s="202"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="129" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107"/>
-      <c r="B3" s="171" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="174" t="s">
+      <c r="C3" s="206" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="177" t="s">
+      <c r="D3" s="207"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="207"/>
+      <c r="G3" s="207"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="209" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="177" t="str">
+      <c r="J3" s="207"/>
+      <c r="K3" s="207"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="210" t="str">
         <f>"本月"&amp;MID(D1,1,4) &amp;"/"&amp;INT(MID(D1,5,2))</f>
         <v>本月2015/8</v>
       </c>
-      <c r="N3" s="178"/>
-      <c r="O3" s="174" t="str">
+      <c r="N3" s="211"/>
+      <c r="O3" s="206" t="str">
         <f>"上市(截至"&amp;E1&amp;"止)"</f>
         <v>上市(截至2015/9/10止)</v>
       </c>
-      <c r="P3" s="179"/>
+      <c r="P3" s="212"/>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="107"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="113" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="204"/>
+      <c r="C4" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="113" t="s">
+      <c r="E4" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="114" t="s">
+      <c r="F4" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="180" t="s">
+      <c r="G4" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="182" t="s">
+      <c r="H4" s="215" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="115" t="s">
+      <c r="I4" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="113" t="s">
+      <c r="J4" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="184" t="s">
+      <c r="K4" s="217" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="182" t="s">
+      <c r="L4" s="215" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="161" t="s">
+      <c r="M4" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="162"/>
-      <c r="O4" s="163" t="s">
+      <c r="N4" s="194"/>
+      <c r="O4" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="164"/>
+      <c r="P4" s="196"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="116" t="s">
+      <c r="A5" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="117" t="str">
+      <c r="B5" s="205"/>
+      <c r="C5" s="134" t="str">
         <f>"("&amp;MID(C1,1,4)&amp;"/"&amp;MID(C1,5,2)&amp;")"</f>
         <v>(2015/07)</v>
       </c>
-      <c r="D5" s="118" t="s">
+      <c r="D5" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="117" t="str">
+      <c r="E5" s="134" t="str">
         <f>"("&amp;MID(D1,1,4)&amp;"/"&amp;MID(D1,5,2)&amp;")"</f>
         <v>(2015/08)</v>
       </c>
-      <c r="F5" s="118" t="s">
+      <c r="F5" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="181"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="117" t="str">
+      <c r="G5" s="214"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="134" t="str">
         <f>"("&amp;MID(C1,1,4)&amp;"/"&amp;MID(C1,5,2)&amp;")"</f>
         <v>(2015/07)</v>
       </c>
-      <c r="J5" s="117" t="str">
+      <c r="J5" s="134" t="str">
         <f>"("&amp;MID(D1,1,4)&amp;"/"&amp;MID(D1,5,2)&amp;")"</f>
         <v>(2015/08)</v>
       </c>
-      <c r="K5" s="185"/>
-      <c r="L5" s="183"/>
-      <c r="M5" s="119" t="s">
+      <c r="K5" s="218"/>
+      <c r="L5" s="216"/>
+      <c r="M5" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="120" t="s">
+      <c r="N5" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="121" t="s">
+      <c r="O5" s="138" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="122" t="s">
+      <c r="P5" s="139" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52" t="str">
+      <c r="C6" s="64"/>
+      <c r="D6" s="65" t="str">
         <f t="shared" ref="D6:D12" si="0" xml:space="preserve"> IF(C6="","",ROUND(C6/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="53" t="str">
+      <c r="E6" s="64"/>
+      <c r="F6" s="66" t="str">
         <f t="shared" ref="F6:F12" si="1">IF(E6="","",E6/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="67">
         <f t="shared" ref="G6:G33" si="2">E6 -C6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="68">
         <f t="shared" ref="H6:H19" si="3" xml:space="preserve"> IF(C6=0,0,G6 / C6 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="57">
+      <c r="I6" s="69"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="70">
         <f>J6 -I6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="58">
+      <c r="L6" s="71">
         <f>IF(I6=0,0,ROUND(K6/I6 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="62"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="4"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="123" t="s">
+      <c r="B7" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52" t="str">
+      <c r="C7" s="64"/>
+      <c r="D7" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="53" t="str">
+      <c r="E7" s="64"/>
+      <c r="F7" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="57">
+      <c r="I7" s="69"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="70">
         <f t="shared" ref="K7:K42" si="4">J7 -I7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="58">
+      <c r="L7" s="71">
         <f t="shared" ref="L7:L42" si="5">IF(I7=0,0,ROUND(K7/I7 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M7" s="59"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="62"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="4"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-    </row>
-    <row r="8" spans="1:29" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="124" t="s">
+      <c r="M7" s="72"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+    </row>
+    <row r="8" spans="1:29" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52" t="str">
+      <c r="C8" s="64"/>
+      <c r="D8" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="53" t="str">
+      <c r="E8" s="64"/>
+      <c r="F8" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G8" s="54">
+      <c r="G8" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="57">
+      <c r="I8" s="69"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L8" s="58">
+      <c r="L8" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M8" s="59"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="62"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="75"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="5"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
     </row>
     <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107" t="s">
+      <c r="A9" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="123" t="s">
+      <c r="B9" s="140" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52" t="str">
+      <c r="C9" s="64"/>
+      <c r="D9" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="53" t="str">
+      <c r="E9" s="64"/>
+      <c r="F9" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="57">
+      <c r="I9" s="69"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L9" s="58">
+      <c r="L9" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M9" s="59"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="62"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="4"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52" t="str">
+      <c r="C10" s="64"/>
+      <c r="D10" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="53" t="str">
+      <c r="E10" s="64"/>
+      <c r="F10" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G10" s="54">
+      <c r="G10" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="57">
+      <c r="I10" s="69"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L10" s="58">
+      <c r="L10" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M10" s="59"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="62"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="4"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
     </row>
     <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="123" t="s">
+      <c r="B11" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52" t="str">
+      <c r="C11" s="64"/>
+      <c r="D11" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="53" t="str">
+      <c r="E11" s="64"/>
+      <c r="F11" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="57">
+      <c r="I11" s="69"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M11" s="59"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="62"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="4"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
     </row>
     <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="140" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52" t="str">
+      <c r="C12" s="64"/>
+      <c r="D12" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="53" t="str">
+      <c r="E12" s="64"/>
+      <c r="F12" s="66" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G12" s="54">
+      <c r="G12" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="57">
+      <c r="I12" s="69"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L12" s="58">
+      <c r="L12" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M12" s="59"/>
-      <c r="N12" s="60"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="62"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="4"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
     </row>
     <row r="13" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107"/>
-      <c r="B13" s="123" t="s">
+      <c r="A13" s="121"/>
+      <c r="B13" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="52" t="str">
+      <c r="C13" s="64"/>
+      <c r="D13" s="65" t="str">
         <f xml:space="preserve"> IF(C13="","",ROUND(C13/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="53" t="str">
+      <c r="E13" s="64"/>
+      <c r="F13" s="66" t="str">
         <f>IF(E13="","",E13/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="67">
         <f>E13 -C13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="68">
         <f xml:space="preserve"> IF(C13=0,0,G13 / C13 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="57">
+      <c r="I13" s="69"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="70">
         <f>J13 -I13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="58">
+      <c r="L13" s="71">
         <f>IF(I13=0,0,ROUND(K13/I13 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M13" s="59"/>
-      <c r="N13" s="60"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="62"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="4"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-    </row>
-    <row r="14" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107"/>
-      <c r="B14" s="123" t="s">
+      <c r="M13" s="72"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="75"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+    </row>
+    <row r="14" spans="1:29" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="128"/>
+      <c r="B14" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="52" t="str">
+      <c r="C14" s="64"/>
+      <c r="D14" s="65" t="str">
         <f xml:space="preserve"> IF(C14="","",ROUND(C14/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="53" t="str">
+      <c r="E14" s="64"/>
+      <c r="F14" s="66" t="str">
         <f>IF(E14="","",E14/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="67">
         <f>E14 -C14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="68">
         <f xml:space="preserve"> IF(C14=0,0,G14 / C14 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="57">
+      <c r="I14" s="69"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="70">
         <f>J14 -I14</f>
         <v>0</v>
       </c>
-      <c r="L14" s="58">
+      <c r="L14" s="71">
         <f>IF(I14=0,0,ROUND(K14/I14 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M14" s="59"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="62"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="4"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-    </row>
-    <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107"/>
-      <c r="B15" s="103" t="s">
+      <c r="M14" s="72"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="75"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+    </row>
+    <row r="15" spans="1:29" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="128"/>
+      <c r="B15" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52" t="str">
+      <c r="C15" s="64"/>
+      <c r="D15" s="65" t="str">
         <f xml:space="preserve"> IF(C15="","",ROUND(C15/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="53" t="str">
+      <c r="E15" s="64"/>
+      <c r="F15" s="66" t="str">
         <f>IF(E15="","",E15/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="67">
         <f>E15 -C15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="68">
         <f xml:space="preserve"> IF(C15=0,0,G15 / C15 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="56"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="57">
+      <c r="I15" s="69"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="70">
         <f>J15 -I15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="58">
+      <c r="L15" s="71">
         <f>IF(I15=0,0,ROUND(K15/I15 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M15" s="59"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="62"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="4"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-    </row>
-    <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107"/>
-      <c r="B16" s="103" t="s">
+      <c r="M15" s="72"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="75"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="5"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+    </row>
+    <row r="16" spans="1:29" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="128"/>
+      <c r="B16" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52" t="str">
+      <c r="C16" s="64"/>
+      <c r="D16" s="65" t="str">
         <f xml:space="preserve"> IF(C16="","",ROUND(C16/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="53" t="str">
+      <c r="E16" s="64"/>
+      <c r="F16" s="66" t="str">
         <f>IF(E16="","",E16/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="67">
         <f>E16 -C16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="68">
         <f xml:space="preserve"> IF(C16=0,0,G16 / C16 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="57">
+      <c r="I16" s="69"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="70">
         <f>J16 -I16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="58">
+      <c r="L16" s="71">
         <f>IF(I16=0,0,ROUND(K16/I16 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M16" s="59"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="62"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="4"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-    </row>
-    <row r="17" spans="1:36" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107"/>
-      <c r="B17" s="103" t="s">
+      <c r="M16" s="72"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="75"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="5"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+    </row>
+    <row r="17" spans="1:36" s="1" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="128"/>
+      <c r="B17" s="117" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="60"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="62"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="4"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="75"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="5"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
     </row>
     <row r="18" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="123" t="s">
+      <c r="B18" s="140" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52" t="str">
+      <c r="C18" s="64"/>
+      <c r="D18" s="65" t="str">
         <f t="shared" ref="D18:D40" si="6" xml:space="preserve"> IF(C18="","",ROUND(C18/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="53" t="str">
+      <c r="E18" s="64"/>
+      <c r="F18" s="66" t="str">
         <f t="shared" ref="F18:F40" si="7">IF(E18="","",E18/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G18" s="54">
+      <c r="G18" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I18" s="56"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="57">
+      <c r="I18" s="69"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L18" s="58">
+      <c r="L18" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M18" s="59"/>
-      <c r="N18" s="60"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="62"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="4"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="123" t="s">
+      <c r="B19" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52" t="str">
+      <c r="C19" s="64"/>
+      <c r="D19" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E19" s="51"/>
-      <c r="F19" s="53" t="str">
+      <c r="E19" s="64"/>
+      <c r="F19" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="68">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I19" s="56"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="57">
+      <c r="I19" s="69"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L19" s="58">
+      <c r="L19" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M19" s="59"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="62"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="4"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="107" t="s">
+      <c r="A20" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="123" t="s">
+      <c r="B20" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52" t="str">
+      <c r="C20" s="64"/>
+      <c r="D20" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E20" s="51"/>
-      <c r="F20" s="53" t="str">
+      <c r="E20" s="64"/>
+      <c r="F20" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="68">
         <f t="shared" ref="H20:H25" si="8" xml:space="preserve"> IF(C20=0,0,G20 / C20 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="56"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="57">
+      <c r="I20" s="69"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L20" s="58">
+      <c r="L20" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M20" s="59"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="62"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="4"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
-      <c r="B21" s="123" t="s">
+      <c r="A21" s="121"/>
+      <c r="B21" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52" t="str">
+      <c r="C21" s="64"/>
+      <c r="D21" s="65" t="str">
         <f xml:space="preserve"> IF(C21="","",ROUND(C21/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E21" s="51"/>
-      <c r="F21" s="53" t="str">
+      <c r="E21" s="64"/>
+      <c r="F21" s="66" t="str">
         <f>IF(E21="","",E21/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="67">
         <f>E21 -C21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="68">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I21" s="56"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="57">
+      <c r="I21" s="69"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="70">
         <f>J21 -I21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="58">
+      <c r="L21" s="71">
         <f>IF(I21=0,0,ROUND(K21/I21 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="59"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="62"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="4"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="123" t="s">
+      <c r="A22" s="121"/>
+      <c r="B22" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="52" t="str">
+      <c r="C22" s="76"/>
+      <c r="D22" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="53" t="str">
+      <c r="E22" s="64"/>
+      <c r="F22" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G22" s="54">
+      <c r="G22" s="67">
         <f>E22 -C22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="68">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I22" s="64"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="57">
+      <c r="I22" s="77"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="70">
         <f>J22 -I22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="58">
+      <c r="L22" s="71">
         <f>IF(I22=0,0,ROUND(K22/I22 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M22" s="59"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="62"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="4"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="123" t="s">
+      <c r="B23" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52" t="str">
+      <c r="C23" s="64"/>
+      <c r="D23" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E23" s="51"/>
-      <c r="F23" s="53" t="str">
+      <c r="E23" s="64"/>
+      <c r="F23" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G23" s="54">
+      <c r="G23" s="67">
         <f>E23 -C23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="68">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="57">
+      <c r="I23" s="69"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L23" s="58">
+      <c r="L23" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M23" s="59"/>
-      <c r="N23" s="60"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="62"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="4"/>
-    </row>
-    <row r="24" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="124" t="s">
+      <c r="M23" s="72"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="52" t="str">
+      <c r="C24" s="76"/>
+      <c r="D24" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E24" s="51"/>
-      <c r="F24" s="53" t="str">
+      <c r="E24" s="64"/>
+      <c r="F24" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="67">
         <f>E24 -C24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="68">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I24" s="64"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="57">
+      <c r="I24" s="77"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="70">
         <f>J24 -I24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="58">
+      <c r="L24" s="71">
         <f>IF(I24=0,0,ROUND(K24/I24 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M24" s="59"/>
-      <c r="N24" s="60"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="62"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="75"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="3"/>
+      <c r="R24" s="4"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -4378,1090 +4505,1144 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="107" t="s">
+      <c r="A25" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="126" t="s">
+      <c r="B25" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="52" t="str">
+      <c r="C25" s="76"/>
+      <c r="D25" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="53" t="str">
+      <c r="E25" s="64"/>
+      <c r="F25" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="67">
         <f>E25 -C25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="55">
+      <c r="H25" s="68">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I25" s="64"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="57">
+      <c r="I25" s="77"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="70">
         <f>J25 -I25</f>
         <v>0</v>
       </c>
-      <c r="L25" s="58">
+      <c r="L25" s="71">
         <f>IF(I25=0,0,ROUND(K25/I25 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M25" s="59"/>
-      <c r="N25" s="60"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="62"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="4"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-    </row>
-    <row r="26" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="107" t="s">
+      <c r="M25" s="72"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+    </row>
+    <row r="26" spans="1:36" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="145" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="52" t="str">
+      <c r="C26" s="76"/>
+      <c r="D26" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="53" t="str">
+      <c r="E26" s="64"/>
+      <c r="F26" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G26" s="54">
+      <c r="G26" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H26" s="55">
+      <c r="H26" s="68">
         <f t="shared" ref="H26:H41" si="9" xml:space="preserve"> IF(C26=0,0,G26 / C26 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="57">
+      <c r="I26" s="77"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L26" s="58">
+      <c r="L26" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M26" s="59"/>
-      <c r="N26" s="60"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="62"/>
-      <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="107" t="s">
+      <c r="M26" s="72"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="75"/>
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" spans="1:36" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="126" t="s">
+      <c r="B27" s="145" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="52" t="str">
+      <c r="C27" s="76"/>
+      <c r="D27" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E27" s="51"/>
-      <c r="F27" s="53" t="str">
+      <c r="E27" s="64"/>
+      <c r="F27" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G27" s="54">
+      <c r="G27" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="68">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I27" s="64"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="57">
+      <c r="I27" s="77"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L27" s="58">
+      <c r="L27" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M27" s="59"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="62"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="4"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-    </row>
-    <row r="28" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="107" t="s">
+      <c r="M27" s="72"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="75"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="5"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="6"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="6"/>
+      <c r="AJ27" s="6"/>
+    </row>
+    <row r="28" spans="1:36" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="126" t="s">
+      <c r="B28" s="145" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="63"/>
-      <c r="D28" s="52" t="str">
+      <c r="C28" s="76"/>
+      <c r="D28" s="65" t="str">
         <f xml:space="preserve"> IF(C28="","",ROUND(C28/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="53" t="str">
+      <c r="E28" s="64"/>
+      <c r="F28" s="66" t="str">
         <f>IF(E28="","",E28/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G28" s="54">
+      <c r="G28" s="67">
         <f>E28 -C28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="55">
+      <c r="H28" s="68">
         <f xml:space="preserve"> IF(C28=0,0,G28 / C28 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="57">
+      <c r="I28" s="77"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="70">
         <f>J28 -I28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="58">
+      <c r="L28" s="71">
         <f>IF(I28=0,0,ROUND(K28/I28 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M28" s="59"/>
-      <c r="N28" s="60"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="62"/>
-      <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="107" t="s">
+      <c r="M28" s="72"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="75"/>
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" spans="1:36" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="126" t="s">
+      <c r="B29" s="145" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="52" t="str">
+      <c r="C29" s="76"/>
+      <c r="D29" s="65" t="str">
         <f xml:space="preserve"> IF(C29="","",ROUND(C29/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E29" s="51"/>
-      <c r="F29" s="53" t="str">
+      <c r="E29" s="64"/>
+      <c r="F29" s="66" t="str">
         <f>IF(E29="","",E29/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G29" s="54">
+      <c r="G29" s="67">
         <f>E29 -C29</f>
         <v>0</v>
       </c>
-      <c r="H29" s="55">
+      <c r="H29" s="68">
         <f xml:space="preserve"> IF(C29=0,0,G29 / C29 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="64"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="57">
+      <c r="I29" s="77"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="70">
         <f>J29 -I29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="58">
+      <c r="L29" s="71">
         <f>IF(I29=0,0,ROUND(K29/I29 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M29" s="59"/>
-      <c r="N29" s="60"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="62"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="4"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-    </row>
-    <row r="30" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="124" t="s">
+      <c r="M29" s="72"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="75"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="5"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6"/>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6"/>
+    </row>
+    <row r="30" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="127" t="s">
+      <c r="B30" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="50">
+      <c r="C30" s="63">
         <f>SUM(C6:C27)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="65" t="e">
+      <c r="D30" s="78" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="50">
+      <c r="E30" s="63">
         <f>SUM(E6:E27)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="66" t="e">
+      <c r="F30" s="79" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H30" s="68">
+      <c r="H30" s="81">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I30" s="69">
+      <c r="I30" s="82">
         <f xml:space="preserve"> SUM(I6:I27)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="50">
+      <c r="J30" s="63">
         <f xml:space="preserve"> SUM(J6:J27)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="67">
+      <c r="K30" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L30" s="70">
+      <c r="L30" s="83">
         <f>IF(I30=0,0,ROUND(K30/I30 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M30" s="59"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="71"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="84"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="5"/>
       <c r="T30" s="1"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-    </row>
-    <row r="31" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="124" t="s">
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+    </row>
+    <row r="31" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="128" t="s">
+      <c r="B31" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="73" t="str">
+      <c r="C31" s="85"/>
+      <c r="D31" s="86" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="74" t="str">
+      <c r="E31" s="85"/>
+      <c r="F31" s="87" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G31" s="54">
+      <c r="G31" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H31" s="75">
+      <c r="H31" s="88">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I31" s="76"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="54">
+      <c r="I31" s="89"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L31" s="77">
+      <c r="L31" s="90">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M31" s="59"/>
-      <c r="N31" s="60"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="62"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="75"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="5"/>
       <c r="T31" s="1"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-    </row>
-    <row r="32" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="124" t="s">
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+    </row>
+    <row r="32" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="129" t="s">
+      <c r="B32" s="148" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="51"/>
-      <c r="D32" s="52" t="str">
+      <c r="C32" s="64"/>
+      <c r="D32" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E32" s="51"/>
-      <c r="F32" s="53" t="str">
+      <c r="E32" s="64"/>
+      <c r="F32" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G32" s="54">
+      <c r="G32" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H32" s="55">
+      <c r="H32" s="68">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I32" s="56"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="57">
+      <c r="I32" s="69"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L32" s="58">
+      <c r="L32" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M32" s="59"/>
-      <c r="N32" s="60"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="62"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="75"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="5"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-    </row>
-    <row r="33" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="124" t="s">
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+    </row>
+    <row r="33" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="129" t="s">
+      <c r="B33" s="148" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="52" t="str">
+      <c r="C33" s="64"/>
+      <c r="D33" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E33" s="51"/>
-      <c r="F33" s="53" t="str">
+      <c r="E33" s="64"/>
+      <c r="F33" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G33" s="54">
+      <c r="G33" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H33" s="55">
+      <c r="H33" s="68">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I33" s="56"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="57">
+      <c r="I33" s="69"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L33" s="58">
+      <c r="L33" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M33" s="59"/>
-      <c r="N33" s="60"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="62"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="75"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="5"/>
       <c r="T33" s="1"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-    </row>
-    <row r="34" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="124" t="s">
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+    </row>
+    <row r="34" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="123" t="s">
+      <c r="B34" s="140" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="51"/>
-      <c r="D34" s="52" t="str">
+      <c r="C34" s="64"/>
+      <c r="D34" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="53" t="str">
+      <c r="E34" s="64"/>
+      <c r="F34" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G34" s="54">
+      <c r="G34" s="67">
         <f t="shared" ref="G34:G40" si="10">E34 -C34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="55">
+      <c r="H34" s="68">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I34" s="56"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="57">
+      <c r="I34" s="69"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L34" s="58">
+      <c r="L34" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M34" s="59"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="62"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="75"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="5"/>
       <c r="T34" s="1"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-    </row>
-    <row r="35" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="124" t="s">
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+    </row>
+    <row r="35" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="141" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="123" t="s">
+      <c r="B35" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="52" t="str">
+      <c r="C35" s="64"/>
+      <c r="D35" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E35" s="51"/>
-      <c r="F35" s="53" t="str">
+      <c r="E35" s="64"/>
+      <c r="F35" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G35" s="54">
+      <c r="G35" s="67">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H35" s="55">
+      <c r="H35" s="68">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I35" s="56"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="57">
+      <c r="I35" s="69"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L35" s="58">
+      <c r="L35" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M35" s="59"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="62"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="75"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="5"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-    </row>
-    <row r="36" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="124" t="s">
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+    </row>
+    <row r="36" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="141" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="123" t="s">
+      <c r="B36" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="52" t="str">
+      <c r="C36" s="64"/>
+      <c r="D36" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E36" s="51"/>
-      <c r="F36" s="53" t="str">
+      <c r="E36" s="64"/>
+      <c r="F36" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G36" s="54">
+      <c r="G36" s="67">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H36" s="55">
+      <c r="H36" s="68">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I36" s="56"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="57">
+      <c r="I36" s="69"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L36" s="58">
+      <c r="L36" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M36" s="59"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="62"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="75"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="7"/>
-      <c r="AD36" s="7"/>
-      <c r="AE36" s="7"/>
-      <c r="AF36" s="7"/>
-      <c r="AG36" s="7"/>
-      <c r="AH36" s="7"/>
-      <c r="AI36" s="7"/>
-      <c r="AJ36" s="7"/>
-    </row>
-    <row r="37" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="124"/>
-      <c r="B37" s="123" t="s">
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="9"/>
+    </row>
+    <row r="37" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="141"/>
+      <c r="B37" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="52" t="str">
+      <c r="C37" s="64"/>
+      <c r="D37" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E37" s="51"/>
-      <c r="F37" s="53" t="str">
+      <c r="E37" s="64"/>
+      <c r="F37" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G37" s="54">
+      <c r="G37" s="67">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H37" s="55">
+      <c r="H37" s="68">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I37" s="56"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="57">
+      <c r="I37" s="69"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L37" s="58">
+      <c r="L37" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M37" s="59"/>
-      <c r="N37" s="60"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="62"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="75"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
-      <c r="AC37" s="7"/>
-      <c r="AD37" s="7"/>
-      <c r="AE37" s="7"/>
-      <c r="AF37" s="7"/>
-      <c r="AG37" s="7"/>
-      <c r="AH37" s="7"/>
-      <c r="AI37" s="7"/>
-      <c r="AJ37" s="7"/>
-    </row>
-    <row r="38" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="124" t="s">
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9"/>
+    </row>
+    <row r="38" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="123" t="s">
+      <c r="B38" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="51"/>
-      <c r="D38" s="52" t="str">
+      <c r="C38" s="64"/>
+      <c r="D38" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="53" t="str">
+      <c r="E38" s="64"/>
+      <c r="F38" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G38" s="54">
+      <c r="G38" s="67">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H38" s="55">
+      <c r="H38" s="68">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I38" s="56"/>
-      <c r="J38" s="51"/>
-      <c r="K38" s="57">
+      <c r="I38" s="69"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="70">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L38" s="58">
+      <c r="L38" s="71">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M38" s="59"/>
-      <c r="N38" s="60"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="62"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="75"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
-      <c r="AC38" s="7"/>
-      <c r="AD38" s="7"/>
-      <c r="AE38" s="7"/>
-      <c r="AF38" s="7"/>
-      <c r="AG38" s="7"/>
-      <c r="AH38" s="7"/>
-      <c r="AI38" s="7"/>
-      <c r="AJ38" s="7"/>
-    </row>
-    <row r="39" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="124"/>
-      <c r="B39" s="126" t="s">
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
+    </row>
+    <row r="39" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="141"/>
+      <c r="B39" s="145" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="52" t="str">
+      <c r="C39" s="64"/>
+      <c r="D39" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="53" t="str">
+      <c r="E39" s="64"/>
+      <c r="F39" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G39" s="54">
+      <c r="G39" s="67">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H39" s="55">
+      <c r="H39" s="68">
         <f xml:space="preserve"> IF(C39=0,0,G39 / C39 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="56"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="57">
+      <c r="I39" s="69"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="70">
         <f>J39 -I39</f>
         <v>0</v>
       </c>
-      <c r="L39" s="58">
+      <c r="L39" s="71">
         <f>IF(I39=0,0,ROUND(K39/I39 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M39" s="59"/>
-      <c r="N39" s="60"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="62"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="75"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="7"/>
-      <c r="Y39" s="7"/>
-      <c r="Z39" s="7"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="7"/>
-      <c r="AC39" s="7"/>
-      <c r="AD39" s="7"/>
-      <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
-      <c r="AH39" s="7"/>
-      <c r="AI39" s="7"/>
-      <c r="AJ39" s="7"/>
-    </row>
-    <row r="40" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="124"/>
-      <c r="B40" s="126" t="s">
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
+    </row>
+    <row r="40" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="141"/>
+      <c r="B40" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="51"/>
-      <c r="D40" s="52" t="str">
+      <c r="C40" s="64"/>
+      <c r="D40" s="65" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="53" t="str">
+      <c r="E40" s="64"/>
+      <c r="F40" s="66" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G40" s="54">
+      <c r="G40" s="67">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H40" s="55">
+      <c r="H40" s="68">
         <f xml:space="preserve"> IF(C40=0,0,G40 / C40 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="56"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="57">
+      <c r="I40" s="69"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="70">
         <f>J40 -I40</f>
         <v>0</v>
       </c>
-      <c r="L40" s="58">
+      <c r="L40" s="71">
         <f>IF(I40=0,0,ROUND(K40/I40 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M40" s="59"/>
-      <c r="N40" s="60"/>
-      <c r="O40" s="61"/>
-      <c r="P40" s="62"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="75"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="7"/>
-      <c r="AC40" s="7"/>
-      <c r="AD40" s="7"/>
-      <c r="AE40" s="7"/>
-      <c r="AF40" s="7"/>
-      <c r="AG40" s="7"/>
-      <c r="AH40" s="7"/>
-      <c r="AI40" s="7"/>
-      <c r="AJ40" s="7"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="9"/>
     </row>
     <row r="41" spans="1:36" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="107" t="s">
+      <c r="A41" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="127" t="s">
+      <c r="B41" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="50">
+      <c r="C41" s="63">
         <f>SUM(C31:C40)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="65" t="e">
+      <c r="D41" s="78" t="e">
         <f xml:space="preserve"> 100 - D30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="50">
+      <c r="E41" s="63">
         <f>SUM(E31:E40)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="66" t="e">
+      <c r="F41" s="79" t="e">
         <f xml:space="preserve"> 100 - F30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="78">
+      <c r="G41" s="91">
         <f>SUM(G31:G40)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="68">
+      <c r="H41" s="81">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I41" s="69">
+      <c r="I41" s="82">
         <f>SUM(I31:I40)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="50">
+      <c r="J41" s="63">
         <f>SUM(J31:J40)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="67">
+      <c r="K41" s="80">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L41" s="70">
+      <c r="L41" s="83">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M41" s="79"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="81"/>
-      <c r="P41" s="71"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="93"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
     </row>
     <row r="42" spans="1:36" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="107"/>
-      <c r="B42" s="130" t="s">
+      <c r="A42" s="121"/>
+      <c r="B42" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="82">
+      <c r="C42" s="95">
         <f>C30 +C41</f>
         <v>0</v>
       </c>
-      <c r="D42" s="83">
+      <c r="D42" s="96">
         <v>100</v>
       </c>
-      <c r="E42" s="82">
+      <c r="E42" s="95">
         <f>E30 + E41</f>
         <v>0</v>
       </c>
-      <c r="F42" s="84">
+      <c r="F42" s="97">
         <v>100</v>
       </c>
-      <c r="G42" s="85">
+      <c r="G42" s="98">
         <f>G30 + G41</f>
         <v>0</v>
       </c>
-      <c r="H42" s="75">
+      <c r="H42" s="88">
         <f xml:space="preserve"> IF(C42=0,0,G42 / C42 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="86">
+      <c r="I42" s="99">
         <f>I30+I41</f>
         <v>0</v>
       </c>
-      <c r="J42" s="82">
+      <c r="J42" s="95">
         <f>J30+J41</f>
         <v>0</v>
       </c>
-      <c r="K42" s="54">
+      <c r="K42" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L42" s="77">
+      <c r="L42" s="90">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M42" s="87"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="90"/>
-      <c r="R42" s="5"/>
-    </row>
-    <row r="43" spans="1:36" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="107"/>
-      <c r="B43" s="165" t="s">
+      <c r="M42" s="100"/>
+      <c r="N42" s="101"/>
+      <c r="O42" s="102"/>
+      <c r="P42" s="103"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+    </row>
+    <row r="43" spans="1:36" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="121"/>
+      <c r="B43" s="197" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="166"/>
-      <c r="D43" s="166"/>
-      <c r="E43" s="166"/>
-      <c r="F43" s="166"/>
-      <c r="G43" s="166"/>
-      <c r="H43" s="166"/>
-      <c r="I43" s="166"/>
-      <c r="J43" s="166"/>
-      <c r="K43" s="166"/>
-      <c r="L43" s="166"/>
-      <c r="M43" s="166"/>
-      <c r="N43" s="166"/>
-      <c r="O43" s="166"/>
-      <c r="P43" s="166"/>
+      <c r="C43" s="198"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="198"/>
+      <c r="F43" s="198"/>
+      <c r="G43" s="198"/>
+      <c r="H43" s="198"/>
+      <c r="I43" s="198"/>
+      <c r="J43" s="198"/>
+      <c r="K43" s="198"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="198"/>
+      <c r="O43" s="198"/>
+      <c r="P43" s="198"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
     </row>
     <row r="44" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="107"/>
-      <c r="B44" s="167" t="str">
+      <c r="A44" s="121"/>
+      <c r="B44" s="199" t="str">
         <f>IF(F1="%","註2：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>註2：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。</v>
       </c>
-      <c r="C44" s="168"/>
-      <c r="D44" s="168"/>
-      <c r="E44" s="168"/>
-      <c r="F44" s="168"/>
-      <c r="G44" s="168"/>
-      <c r="H44" s="168"/>
-      <c r="I44" s="168"/>
-      <c r="J44" s="168"/>
-      <c r="K44" s="168"/>
-      <c r="L44" s="168"/>
-      <c r="M44" s="168"/>
-      <c r="N44" s="168"/>
-      <c r="O44" s="168"/>
-      <c r="P44" s="168"/>
+      <c r="C44" s="200"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="200"/>
+      <c r="G44" s="200"/>
+      <c r="H44" s="200"/>
+      <c r="I44" s="200"/>
+      <c r="J44" s="200"/>
+      <c r="K44" s="200"/>
+      <c r="L44" s="200"/>
+      <c r="M44" s="200"/>
+      <c r="N44" s="200"/>
+      <c r="O44" s="200"/>
+      <c r="P44" s="200"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+    </row>
+    <row r="45" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="48"/>
+      <c r="F46" s="61"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5494,7 +5675,7 @@
     <tabColor theme="9" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
@@ -5506,1046 +5687,1069 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="23" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="13" style="23" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="23" customWidth="1"/>
-    <col min="16" max="16384" width="11.625" style="23"/>
+    <col min="1" max="1" width="9.125" style="30" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="14.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="13" style="30" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="34" customWidth="1"/>
+    <col min="16" max="16384" width="11.625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="23">
+      <c r="C1" s="30">
         <v>3</v>
       </c>
-      <c r="D1" s="23">
+      <c r="D1" s="30">
         <v>8</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="150" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="186" t="str">
+    <row r="3" spans="1:16" s="34" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="219" t="str">
         <f>"                    附表2　期貨暨選擇權最近6個月("&amp;C1&amp;"至"&amp;D1&amp;"月)市場成交量彙總表"&amp;IF(F1="1","(盤後交易時段)",IF(F1="0","(一般交易時段)",""))</f>
         <v xml:space="preserve">                    附表2　期貨暨選擇權最近6個月(3至8月)市場成交量彙總表</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="131"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="152"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="133"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="190" t="s">
+      <c r="C4" s="154"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="223" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="190"/>
-      <c r="G4" s="190"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="190" t="s">
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="224"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="223" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="190"/>
-      <c r="M4" s="190"/>
-      <c r="N4" s="191"/>
-      <c r="O4" s="135"/>
-    </row>
-    <row r="5" spans="1:16" s="141" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="136" t="s">
+      <c r="L4" s="223"/>
+      <c r="M4" s="223"/>
+      <c r="N4" s="224"/>
+      <c r="O4" s="156"/>
+    </row>
+    <row r="5" spans="1:16" s="162" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="189"/>
-      <c r="C5" s="137" t="str">
+      <c r="B5" s="222"/>
+      <c r="C5" s="158" t="str">
         <f>$C$1 &amp;"月"</f>
         <v>3月</v>
       </c>
-      <c r="D5" s="138" t="str">
+      <c r="D5" s="159" t="str">
         <f>IF($C$1+1&lt;=12,$C$1+1,$C$1+1-12)&amp;"月"</f>
         <v>4月</v>
       </c>
-      <c r="E5" s="138" t="str">
+      <c r="E5" s="159" t="str">
         <f>IF($C$1+2&lt;=12,$C$1+2,$C$1+2-12)&amp;"月"</f>
         <v>5月</v>
       </c>
-      <c r="F5" s="138" t="str">
+      <c r="F5" s="159" t="str">
         <f>IF($C$1+3&lt;=12,$C$1+3,$C$1+3-12)&amp;"月"</f>
         <v>6月</v>
       </c>
-      <c r="G5" s="138" t="str">
+      <c r="G5" s="159" t="str">
         <f>IF($C$1+4&lt;=12,$C$1+4,$C$1+4-12)&amp;"月"</f>
         <v>7月</v>
       </c>
-      <c r="H5" s="139" t="str">
+      <c r="H5" s="160" t="str">
         <f>IF($C$1+5&lt;=12,$C$1+5,$C$1+5-12)&amp;"月"</f>
         <v>8月</v>
       </c>
-      <c r="I5" s="138" t="str">
+      <c r="I5" s="159" t="str">
         <f>$C$1 &amp;"月"</f>
         <v>3月</v>
       </c>
-      <c r="J5" s="138" t="str">
+      <c r="J5" s="159" t="str">
         <f>IF($C$1+1&lt;=12,$C$1+1,$C$1+1-12)&amp;"月"</f>
         <v>4月</v>
       </c>
-      <c r="K5" s="138" t="str">
+      <c r="K5" s="159" t="str">
         <f>IF($C$1+2&lt;=12,$C$1+2,$C$1+2-12)&amp;"月"</f>
         <v>5月</v>
       </c>
-      <c r="L5" s="138" t="str">
+      <c r="L5" s="159" t="str">
         <f>IF($C$1+3&lt;=12,$C$1+3,$C$1+3-12)&amp;"月"</f>
         <v>6月</v>
       </c>
-      <c r="M5" s="138" t="str">
+      <c r="M5" s="159" t="str">
         <f>IF($C$1+4&lt;=12,$C$1+4,$C$1+4-12)&amp;"月"</f>
         <v>7月</v>
       </c>
-      <c r="N5" s="139" t="str">
+      <c r="N5" s="160" t="str">
         <f>IF($C$1+5&lt;=12,$C$1+5,$C$1+5-12)&amp;"月"</f>
         <v>8月</v>
       </c>
-      <c r="O5" s="140"/>
+      <c r="O5" s="161"/>
     </row>
     <row r="6" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="98" t="s">
+      <c r="A6" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="147"/>
-      <c r="M6" s="147"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="97"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="169"/>
+      <c r="O6" s="110"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="147"/>
-      <c r="M7" s="147"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="97"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="169"/>
+      <c r="O7" s="110"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="163" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="143"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="147"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="97"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="168"/>
+      <c r="K8" s="168"/>
+      <c r="L8" s="168"/>
+      <c r="M8" s="168"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="110"/>
     </row>
     <row r="9" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="147"/>
-      <c r="M9" s="147"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="97"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="168"/>
+      <c r="L9" s="168"/>
+      <c r="M9" s="168"/>
+      <c r="N9" s="169"/>
+      <c r="O9" s="110"/>
     </row>
     <row r="10" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="s">
+      <c r="A10" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="149"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="147"/>
-      <c r="M10" s="147"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="97"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="169"/>
+      <c r="O10" s="110"/>
     </row>
     <row r="11" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="104" t="s">
+      <c r="B11" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="149"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="147"/>
-      <c r="M11" s="147"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="150"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="168"/>
+      <c r="M11" s="168"/>
+      <c r="N11" s="169"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="172"/>
     </row>
     <row r="12" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="s">
+      <c r="A12" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="143"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="148"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="150"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="168"/>
+      <c r="L12" s="168"/>
+      <c r="M12" s="168"/>
+      <c r="N12" s="169"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="172"/>
     </row>
     <row r="13" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="151" t="s">
+      <c r="A13" s="112"/>
+      <c r="B13" s="173" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="97"/>
-    </row>
-    <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="151" t="s">
+      <c r="C13" s="164"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+      <c r="N13" s="166"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="111"/>
+    </row>
+    <row r="14" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="174"/>
+      <c r="B14" s="173" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="143"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
-      <c r="M14" s="144"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="97"/>
-    </row>
-    <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="98" t="s">
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="176"/>
+      <c r="M14" s="176"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="178"/>
+    </row>
+    <row r="15" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="174" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
-      <c r="M15" s="144"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="97"/>
-    </row>
-    <row r="16" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="104" t="s">
+      <c r="C15" s="175"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="176"/>
+      <c r="M15" s="176"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="178"/>
+    </row>
+    <row r="16" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="174"/>
+      <c r="B16" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
-      <c r="M16" s="144"/>
-      <c r="N16" s="145"/>
-      <c r="O16" s="97"/>
-    </row>
-    <row r="17" spans="1:16" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="104" t="s">
+      <c r="C16" s="175"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="176"/>
+      <c r="M16" s="176"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="178"/>
+    </row>
+    <row r="17" spans="1:16" s="34" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="174"/>
+      <c r="B17" s="118" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="143"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="97"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="176"/>
+      <c r="M17" s="176"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="178"/>
     </row>
     <row r="18" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98" t="s">
+      <c r="A18" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="143"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="149"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="147"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="148"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="150"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="168"/>
+      <c r="L18" s="168"/>
+      <c r="M18" s="168"/>
+      <c r="N18" s="169"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="172"/>
     </row>
     <row r="19" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="143"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="144"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="144"/>
-      <c r="L19" s="144"/>
-      <c r="M19" s="144"/>
-      <c r="N19" s="148"/>
-      <c r="O19" s="97"/>
+      <c r="C19" s="164"/>
+      <c r="D19" s="165"/>
+      <c r="E19" s="165"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="165"/>
+      <c r="J19" s="165"/>
+      <c r="K19" s="165"/>
+      <c r="L19" s="165"/>
+      <c r="M19" s="165"/>
+      <c r="N19" s="169"/>
+      <c r="O19" s="110"/>
     </row>
     <row r="20" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="143"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="144"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="144"/>
-      <c r="L20" s="144"/>
-      <c r="M20" s="144"/>
-      <c r="N20" s="145"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="150"/>
+      <c r="C20" s="164"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="172"/>
     </row>
     <row r="21" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
-      <c r="B21" s="152" t="s">
+      <c r="A21" s="112"/>
+      <c r="B21" s="179" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="143"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="144"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="150"/>
+      <c r="C21" s="164"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="110"/>
+      <c r="P21" s="172"/>
     </row>
     <row r="22" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
-      <c r="B22" s="152" t="s">
+      <c r="A22" s="112"/>
+      <c r="B22" s="179" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="144"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="144"/>
-      <c r="L22" s="144"/>
-      <c r="M22" s="144"/>
-      <c r="N22" s="145"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="150"/>
+      <c r="C22" s="164"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="172"/>
     </row>
     <row r="23" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="s">
+      <c r="A23" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="152" t="s">
+      <c r="B23" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="143"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="144"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="144"/>
-      <c r="L23" s="144"/>
-      <c r="M23" s="144"/>
-      <c r="N23" s="145"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="150"/>
-    </row>
-    <row r="24" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="98" t="s">
+      <c r="C23" s="164"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="166"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="172"/>
+    </row>
+    <row r="24" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="152" t="s">
+      <c r="B24" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="143"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="144"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="144"/>
-      <c r="L24" s="144"/>
-      <c r="M24" s="144"/>
-      <c r="N24" s="145"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="150"/>
-    </row>
-    <row r="25" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
-      <c r="B25" s="152" t="s">
+      <c r="C24" s="164"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="165"/>
+      <c r="J24" s="165"/>
+      <c r="K24" s="165"/>
+      <c r="L24" s="165"/>
+      <c r="M24" s="165"/>
+      <c r="N24" s="166"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="180"/>
+    </row>
+    <row r="25" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="174"/>
+      <c r="B25" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="143"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="144"/>
-      <c r="L25" s="144"/>
-      <c r="M25" s="144"/>
-      <c r="N25" s="145"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="150"/>
-    </row>
-    <row r="26" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="98"/>
-      <c r="B26" s="152" t="s">
+      <c r="C25" s="164"/>
+      <c r="D25" s="165"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="165"/>
+      <c r="M25" s="165"/>
+      <c r="N25" s="166"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="180"/>
+    </row>
+    <row r="26" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="174"/>
+      <c r="B26" s="181" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="143"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="144"/>
-      <c r="L26" s="144"/>
-      <c r="M26" s="144"/>
-      <c r="N26" s="145"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="150"/>
-    </row>
-    <row r="27" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="98" t="s">
+      <c r="C26" s="175"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="176"/>
+      <c r="N26" s="177"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="180"/>
+    </row>
+    <row r="27" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="174" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="152" t="s">
+      <c r="B27" s="181" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="144"/>
-      <c r="L27" s="144"/>
-      <c r="M27" s="144"/>
-      <c r="N27" s="145"/>
-      <c r="O27" s="97"/>
-    </row>
-    <row r="28" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="98"/>
-      <c r="B28" s="106" t="s">
+      <c r="C27" s="175"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="176"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="176"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="176"/>
+      <c r="M27" s="176"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="178"/>
+    </row>
+    <row r="28" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="174"/>
+      <c r="B28" s="120" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="143"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="144"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="144"/>
-      <c r="L28" s="144"/>
-      <c r="M28" s="144"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="150"/>
-    </row>
-    <row r="29" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="98" t="s">
+      <c r="C28" s="175"/>
+      <c r="D28" s="176"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="176"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="176"/>
+      <c r="M28" s="176"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="180"/>
+    </row>
+    <row r="29" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="106" t="s">
+      <c r="B29" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="143"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="144"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="145"/>
-      <c r="O29" s="97"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="176"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="176"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="178"/>
     </row>
     <row r="30" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="91" t="s">
+      <c r="A30" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="93">
+      <c r="C30" s="106">
         <f t="shared" ref="C30:N30" si="0">SUM(C6:C27)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="94">
+      <c r="D30" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="94">
+      <c r="E30" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="94">
+      <c r="F30" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="94">
+      <c r="G30" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30" s="95">
+      <c r="H30" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I30" s="96">
+      <c r="I30" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="94">
+      <c r="J30" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="94">
+      <c r="K30" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L30" s="94">
+      <c r="L30" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="94">
+      <c r="M30" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N30" s="95">
+      <c r="N30" s="108">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O30" s="97"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="111"/>
     </row>
     <row r="31" spans="1:16" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="91" t="s">
+      <c r="A31" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="142" t="s">
+      <c r="B31" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="143"/>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="153"/>
-      <c r="L31" s="153"/>
-      <c r="M31" s="153"/>
-      <c r="N31" s="154"/>
-      <c r="O31" s="97"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="176"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="184"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="111"/>
     </row>
     <row r="32" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="142" t="s">
+      <c r="B32" s="163" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="143"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="155"/>
-      <c r="O32" s="97"/>
+      <c r="C32" s="175"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="176"/>
+      <c r="G32" s="176"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
+      <c r="L32" s="185"/>
+      <c r="M32" s="185"/>
+      <c r="N32" s="186"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="111"/>
     </row>
     <row r="33" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="142" t="s">
+      <c r="B33" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="143"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="155"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="150"/>
+      <c r="C33" s="175"/>
+      <c r="D33" s="176"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="185"/>
+      <c r="M33" s="185"/>
+      <c r="N33" s="186"/>
+      <c r="O33" s="110"/>
+      <c r="P33" s="172"/>
     </row>
     <row r="34" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="91" t="s">
+      <c r="A34" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="143"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="144"/>
-      <c r="J34" s="156"/>
-      <c r="K34" s="156"/>
-      <c r="L34" s="156"/>
-      <c r="M34" s="156"/>
-      <c r="N34" s="155"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="150"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="176"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="187"/>
+      <c r="K34" s="187"/>
+      <c r="L34" s="187"/>
+      <c r="M34" s="187"/>
+      <c r="N34" s="186"/>
+      <c r="O34" s="110"/>
+      <c r="P34" s="172"/>
     </row>
     <row r="35" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="104" t="s">
+      <c r="B35" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="143"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="144"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="144"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="144"/>
-      <c r="J35" s="156"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="156"/>
-      <c r="M35" s="156"/>
-      <c r="N35" s="155"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="150"/>
-    </row>
-    <row r="36" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="98" t="s">
+      <c r="C35" s="175"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="176"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="187"/>
+      <c r="K35" s="187"/>
+      <c r="L35" s="187"/>
+      <c r="M35" s="187"/>
+      <c r="N35" s="186"/>
+      <c r="O35" s="110"/>
+      <c r="P35" s="172"/>
+    </row>
+    <row r="36" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="174" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="171" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="143"/>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="156"/>
-      <c r="K36" s="156"/>
-      <c r="L36" s="156"/>
-      <c r="M36" s="156"/>
-      <c r="N36" s="155"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="150"/>
-    </row>
-    <row r="37" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="98"/>
-      <c r="B37" s="142" t="s">
+      <c r="C36" s="175"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="176"/>
+      <c r="F36" s="176"/>
+      <c r="G36" s="176"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="187"/>
+      <c r="L36" s="187"/>
+      <c r="M36" s="187"/>
+      <c r="N36" s="186"/>
+      <c r="O36" s="110"/>
+      <c r="P36" s="180"/>
+    </row>
+    <row r="37" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="174"/>
+      <c r="B37" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="143"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="144"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="156"/>
-      <c r="L37" s="156"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="155"/>
-      <c r="O37" s="97"/>
-      <c r="P37" s="150"/>
-    </row>
-    <row r="38" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="98" t="s">
+      <c r="C37" s="175"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="176"/>
+      <c r="F37" s="176"/>
+      <c r="G37" s="176"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="187"/>
+      <c r="K37" s="187"/>
+      <c r="L37" s="187"/>
+      <c r="M37" s="187"/>
+      <c r="N37" s="186"/>
+      <c r="O37" s="110"/>
+      <c r="P37" s="180"/>
+    </row>
+    <row r="38" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="174" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="142" t="s">
+      <c r="B38" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="143"/>
-      <c r="D38" s="144"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="147"/>
-      <c r="M38" s="147"/>
-      <c r="N38" s="155"/>
-      <c r="O38" s="97"/>
-    </row>
-    <row r="39" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="98"/>
-      <c r="B39" s="157" t="s">
+      <c r="C38" s="175"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="176"/>
+      <c r="F38" s="176"/>
+      <c r="G38" s="176"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="182"/>
+      <c r="J38" s="185"/>
+      <c r="K38" s="185"/>
+      <c r="L38" s="185"/>
+      <c r="M38" s="185"/>
+      <c r="N38" s="186"/>
+      <c r="O38" s="110"/>
+      <c r="P38" s="178"/>
+    </row>
+    <row r="39" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="174"/>
+      <c r="B39" s="188" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="143"/>
-      <c r="D39" s="144"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="156"/>
-      <c r="K39" s="156"/>
-      <c r="L39" s="156"/>
-      <c r="M39" s="156"/>
-      <c r="N39" s="155"/>
-      <c r="O39" s="97"/>
-      <c r="P39" s="150"/>
-    </row>
-    <row r="40" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="98" t="s">
+      <c r="C39" s="175"/>
+      <c r="D39" s="176"/>
+      <c r="E39" s="176"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="176"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="187"/>
+      <c r="K39" s="187"/>
+      <c r="L39" s="187"/>
+      <c r="M39" s="187"/>
+      <c r="N39" s="186"/>
+      <c r="O39" s="110"/>
+      <c r="P39" s="180"/>
+    </row>
+    <row r="40" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="174" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="157" t="s">
+      <c r="B40" s="188" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="143"/>
-      <c r="D40" s="144"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="147"/>
-      <c r="K40" s="147"/>
-      <c r="L40" s="147"/>
-      <c r="M40" s="147"/>
-      <c r="N40" s="155"/>
-      <c r="O40" s="97"/>
+      <c r="C40" s="175"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="176"/>
+      <c r="F40" s="176"/>
+      <c r="G40" s="176"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="182"/>
+      <c r="J40" s="185"/>
+      <c r="K40" s="185"/>
+      <c r="L40" s="185"/>
+      <c r="M40" s="185"/>
+      <c r="N40" s="186"/>
+      <c r="O40" s="110"/>
+      <c r="P40" s="178"/>
     </row>
     <row r="41" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="98" t="s">
+      <c r="A41" s="112" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="93">
+      <c r="C41" s="106">
         <f>SUM(C31:C38)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="94">
+      <c r="D41" s="107">
         <f t="shared" ref="D41:N41" si="1">SUM(D31:D38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="94">
+      <c r="E41" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="94">
+      <c r="F41" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G41" s="94">
+      <c r="G41" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H41" s="95">
+      <c r="H41" s="108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="93">
+      <c r="I41" s="106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J41" s="94">
+      <c r="J41" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K41" s="94">
+      <c r="K41" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L41" s="94">
+      <c r="L41" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M41" s="94">
+      <c r="M41" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N41" s="94">
+      <c r="N41" s="107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O41" s="97"/>
+      <c r="O41" s="110"/>
     </row>
     <row r="42" spans="1:16" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="98" t="s">
+      <c r="A42" s="112" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="99" t="s">
+      <c r="B42" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="100">
+      <c r="C42" s="114">
         <f>SUM(C30,C41)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="101">
+      <c r="D42" s="115">
         <f t="shared" ref="D42:N42" si="2">SUM(D30,D41)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="101">
+      <c r="E42" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F42" s="101">
+      <c r="F42" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G42" s="101">
+      <c r="G42" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H42" s="102">
+      <c r="H42" s="116">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I42" s="100">
+      <c r="I42" s="114">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42" s="101">
+      <c r="J42" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K42" s="101">
+      <c r="K42" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L42" s="101">
+      <c r="L42" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M42" s="101">
+      <c r="M42" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N42" s="101">
+      <c r="N42" s="115">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O42" s="97"/>
+      <c r="O42" s="110"/>
     </row>
     <row r="43" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="192" t="s">
+      <c r="B43" s="225" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="193"/>
-      <c r="D43" s="193"/>
-      <c r="E43" s="193"/>
-      <c r="F43" s="193"/>
-      <c r="G43" s="193"/>
-      <c r="H43" s="193"/>
-      <c r="I43" s="193"/>
-      <c r="J43" s="193"/>
-      <c r="K43" s="193"/>
-      <c r="L43" s="193"/>
-      <c r="M43" s="158"/>
-      <c r="N43" s="158"/>
-      <c r="O43" s="158"/>
+      <c r="C43" s="226"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="226"/>
+      <c r="F43" s="226"/>
+      <c r="G43" s="226"/>
+      <c r="H43" s="226"/>
+      <c r="I43" s="226"/>
+      <c r="J43" s="226"/>
+      <c r="K43" s="226"/>
+      <c r="L43" s="226"/>
+      <c r="M43" s="189"/>
+      <c r="N43" s="189"/>
+      <c r="O43" s="190"/>
     </row>
     <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="194" t="str">
+      <c r="B44" s="227" t="str">
         <f>IF(F1="%","註2：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>註2：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。</v>
       </c>
-      <c r="C44" s="195"/>
-      <c r="D44" s="195"/>
-      <c r="E44" s="195"/>
-      <c r="F44" s="195"/>
-      <c r="G44" s="195"/>
-      <c r="H44" s="195"/>
-      <c r="I44" s="195"/>
-      <c r="J44" s="195"/>
-      <c r="K44" s="195"/>
-      <c r="L44" s="195"/>
-      <c r="M44" s="195"/>
-      <c r="N44" s="195"/>
-      <c r="O44" s="159"/>
-      <c r="P44" s="159"/>
+      <c r="C44" s="228"/>
+      <c r="D44" s="228"/>
+      <c r="E44" s="228"/>
+      <c r="F44" s="228"/>
+      <c r="G44" s="228"/>
+      <c r="H44" s="228"/>
+      <c r="I44" s="228"/>
+      <c r="J44" s="228"/>
+      <c r="K44" s="228"/>
+      <c r="L44" s="228"/>
+      <c r="M44" s="228"/>
+      <c r="N44" s="228"/>
+      <c r="O44" s="191"/>
+      <c r="P44" s="191"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C45" s="111"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H46" s="160"/>
-      <c r="N46" s="160"/>
+      <c r="C46" s="111"/>
+      <c r="H46" s="192"/>
+      <c r="N46" s="192"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C47" s="111"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C48" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6577,208 +6781,210 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="13" customWidth="1"/>
-    <col min="2" max="2" width="35.625" style="13" customWidth="1"/>
-    <col min="3" max="4" width="28.125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="13" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="7.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="28.125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9" style="23"/>
+    <col min="8" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13">
+      <c r="A1" s="18">
         <v>8</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="119" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="str">
+    <row r="2" spans="1:12" s="17" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="229" t="str">
         <f>"附表4　國內期貨市場主要期貨商"&amp;IF(F1="1","於盤後交易時段",IF(F1="0","於一般交易時段",""))&amp;A1&amp;"月市占率概況表(依成交量排序)"</f>
         <v>附表4　國內期貨市場主要期貨商8月市占率概況表(依成交量排序)</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
+      <c r="B2" s="230"/>
+      <c r="C2" s="230"/>
+      <c r="D2" s="230"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="24">
         <v>4</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="24">
         <v>5</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="24">
         <v>7</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="20"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="24">
         <v>8</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="24">
         <v>9</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="24">
         <v>10</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="str">
+      <c r="B13" s="21"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+    </row>
+    <row r="14" spans="1:12" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="str">
         <f>IF(F1="%","註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15"/>
@@ -6834,41 +7040,44 @@
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+    <row r="24" spans="1:12" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-    </row>
-    <row r="25" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+    </row>
+    <row r="25" spans="1:12" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-    </row>
-    <row r="26" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+    </row>
+    <row r="26" spans="1:12" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6887,7 +7096,7 @@
   <sheetPr codeName="Sheet32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -6895,201 +7104,206 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="36" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
         <v>8</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="str">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="str">
         <f>"附表5　國內期貨市場期貨商"&amp;A1&amp;"月成交量成長暨衰退概況表"&amp;IF(F1="1","(盤後交易時段)",IF(F1="0","(一般交易時段)",""))</f>
         <v>附表5　國內期貨市場期貨商8月成交量成長暨衰退概況表</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="27" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="36" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29" t="s">
+    <row r="3" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="33" t="str">
+      <c r="C4" s="42" t="str">
         <f>IF(A1-1 &lt; 1, A1-1+12, A1 - 1) &amp;  "月成交量"</f>
         <v>7月成交量</v>
       </c>
-      <c r="D4" s="33" t="str">
+      <c r="D4" s="42" t="str">
         <f>A1&amp;"月成交量"</f>
         <v>8月成交量</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="43" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="44">
         <v>1</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
         <v>2</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="44">
         <v>3</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="38"/>
-    </row>
-    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="31"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="33" t="str">
+      <c r="C9" s="42" t="str">
         <f>IF(A1-1 &lt; 1, A1-1+12, A1 - 1) &amp;  "月成交量"</f>
         <v>7月成交量</v>
       </c>
-      <c r="D9" s="33" t="str">
+      <c r="D9" s="42" t="str">
         <f>A1&amp;"月成交量"</f>
         <v>8月成交量</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="43" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="44">
         <v>1</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="44">
         <v>2</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="53">
         <v>3</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="38"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="198" t="str">
+      <c r="B12" s="45"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+    </row>
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="231" t="str">
         <f>IF(F1="%","註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。</v>
       </c>
-      <c r="B13" s="198" t="e">
+      <c r="B13" s="231" t="e">
         <f>IF(#REF!="%","註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>#REF!</v>
       </c>
-      <c r="C13" s="198" t="e">
+      <c r="C13" s="231" t="e">
         <f>IF(#REF!="%","註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>#REF!</v>
       </c>
-      <c r="D13" s="198" t="e">
+      <c r="D13" s="231" t="e">
         <f>IF(#REF!="%","註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>#REF!</v>
       </c>
-      <c r="E13" s="198" t="e">
+      <c r="E13" s="231" t="e">
         <f>IF(#REF!="%","註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>#REF!</v>
       </c>
-      <c r="F13" s="198" t="e">
+      <c r="F13" s="231" t="e">
         <f>IF(#REF!="%","註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="44"/>
-    </row>
-    <row r="17" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="57"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+    </row>
+    <row r="17" spans="2:5" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
     </row>
     <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20"/>

--- a/PhoenixCI/Excel_Template/30780.xlsx
+++ b/PhoenixCI/Excel_Template/30780.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{825A5003-451A-4084-AF19-7EA128A650A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6F6167-DC9A-40C8-982B-B6BDFD8E78FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="附表1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2217,24 +2218,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
@@ -2246,9 +2241,6 @@
     <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2259,19 +2251,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2279,24 +2266,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -2318,10 +2301,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2332,20 +2311,14 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="25" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2353,25 +2326,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="25" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="25" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="25" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="25" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="179" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
@@ -2380,152 +2350,151 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="7" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="15" fillId="0" borderId="3" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="7" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="1" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="191" fontId="15" fillId="0" borderId="3" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="8" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="15" fillId="0" borderId="9" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="8" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="191" fontId="15" fillId="0" borderId="9" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="11" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="12" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="15" fillId="0" borderId="13" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="10" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="11" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="12" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="191" fontId="15" fillId="0" borderId="13" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="191" fontId="15" fillId="0" borderId="13" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="6" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="191" fontId="15" fillId="0" borderId="15" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="14" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="191" fontId="15" fillId="0" borderId="13" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="6" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="6" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="191" fontId="15" fillId="0" borderId="15" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="16" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="191" fontId="15" fillId="0" borderId="17" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="16" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="191" fontId="15" fillId="0" borderId="17" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="7" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="18" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="18" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="18" xfId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="195" fontId="15" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="18" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="18" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="18" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="18" xfId="35" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="195" fontId="15" fillId="0" borderId="19" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="178" fontId="15" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="2" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="15" fillId="2" borderId="21" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2539,23 +2508,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2582,11 +2541,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="1" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2598,25 +2557,19 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2627,24 +2580,22 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2657,7 +2608,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2685,69 +2636,42 @@
     <xf numFmtId="177" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2767,19 +2691,19 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -2808,11 +2732,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2844,10 +2764,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2856,10 +2776,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2868,20 +2788,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3399,1105 +3319,1058 @@
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.75" style="2" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" style="13" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.25" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="3" customWidth="1"/>
-    <col min="13" max="13" width="13.375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="10" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" style="12" customWidth="1"/>
     <col min="14" max="14" width="13.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.25" style="16" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="3"/>
-    <col min="18" max="18" width="12.125" style="3" customWidth="1"/>
-    <col min="19" max="19" width="11.125" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="3"/>
+    <col min="15" max="15" width="13.25" style="12" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="12.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="1.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121"/>
-      <c r="B1" s="122"/>
-      <c r="C1" s="123">
+      <c r="A1" s="107"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="109">
         <v>201507</v>
       </c>
-      <c r="D1" s="123">
+      <c r="D1" s="109">
         <v>201508</v>
       </c>
-      <c r="E1" s="123" t="s">
+      <c r="E1" s="109" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="124"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="122"/>
-    </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="128"/>
-      <c r="B2" s="201" t="str">
+      <c r="G1" s="110"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="108"/>
+    </row>
+    <row r="2" spans="1:29" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="107"/>
+      <c r="B2" s="169" t="str">
         <f>"附表1　期貨暨選擇權最近2個月("&amp;INT(MID(C1,5,2))&amp;"月份及"&amp;INT(MID(D1,5,2))&amp;"月份)市場成交量變動比較表"&amp;IF(F1="1","(盤後交易時段)",IF(F1="0","(一般交易時段)",""))</f>
         <v>附表1　期貨暨選擇權最近2個月(7月份及8月份)市場成交量變動比較表</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
-      <c r="M2" s="202"/>
-      <c r="N2" s="202"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="129" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="170"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="112" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
-      <c r="B3" s="203" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="206" t="s">
+      <c r="C3" s="174" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="209" t="s">
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="177" t="s">
         <v>120</v>
       </c>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="210" t="str">
+      <c r="J3" s="175"/>
+      <c r="K3" s="175"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="177" t="str">
         <f>"本月"&amp;MID(D1,1,4) &amp;"/"&amp;INT(MID(D1,5,2))</f>
         <v>本月2015/8</v>
       </c>
-      <c r="N3" s="211"/>
-      <c r="O3" s="206" t="str">
+      <c r="N3" s="178"/>
+      <c r="O3" s="174" t="str">
         <f>"上市(截至"&amp;E1&amp;"止)"</f>
         <v>上市(截至2015/9/10止)</v>
       </c>
-      <c r="P3" s="212"/>
+      <c r="P3" s="179"/>
     </row>
     <row r="4" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="121"/>
-      <c r="B4" s="204"/>
-      <c r="C4" s="130" t="s">
+      <c r="A4" s="107"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="131" t="s">
+      <c r="D4" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="130" t="s">
+      <c r="E4" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="213" t="s">
+      <c r="G4" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="215" t="s">
+      <c r="H4" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="I4" s="132" t="s">
+      <c r="I4" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="130" t="s">
+      <c r="J4" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="217" t="s">
+      <c r="K4" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="215" t="s">
+      <c r="L4" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="M4" s="193" t="s">
+      <c r="M4" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="194"/>
-      <c r="O4" s="195" t="s">
+      <c r="N4" s="162"/>
+      <c r="O4" s="163" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="196"/>
+      <c r="P4" s="164"/>
     </row>
     <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="205"/>
-      <c r="C5" s="134" t="str">
+      <c r="B5" s="173"/>
+      <c r="C5" s="117" t="str">
         <f>"("&amp;MID(C1,1,4)&amp;"/"&amp;MID(C1,5,2)&amp;")"</f>
         <v>(2015/07)</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="134" t="str">
+      <c r="E5" s="117" t="str">
         <f>"("&amp;MID(D1,1,4)&amp;"/"&amp;MID(D1,5,2)&amp;")"</f>
         <v>(2015/08)</v>
       </c>
-      <c r="F5" s="135" t="s">
+      <c r="F5" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="214"/>
-      <c r="H5" s="216"/>
-      <c r="I5" s="134" t="str">
+      <c r="G5" s="181"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="117" t="str">
         <f>"("&amp;MID(C1,1,4)&amp;"/"&amp;MID(C1,5,2)&amp;")"</f>
         <v>(2015/07)</v>
       </c>
-      <c r="J5" s="134" t="str">
+      <c r="J5" s="117" t="str">
         <f>"("&amp;MID(D1,1,4)&amp;"/"&amp;MID(D1,5,2)&amp;")"</f>
         <v>(2015/08)</v>
       </c>
-      <c r="K5" s="218"/>
-      <c r="L5" s="216"/>
-      <c r="M5" s="136" t="s">
+      <c r="K5" s="185"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="137" t="s">
+      <c r="N5" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="138" t="s">
+      <c r="O5" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="139" t="s">
+      <c r="P5" s="122" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="121" t="s">
+      <c r="A6" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65" t="str">
+      <c r="C6" s="51"/>
+      <c r="D6" s="52" t="str">
         <f t="shared" ref="D6:D12" si="0" xml:space="preserve"> IF(C6="","",ROUND(C6/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="66" t="str">
+      <c r="E6" s="51"/>
+      <c r="F6" s="53" t="str">
         <f t="shared" ref="F6:F12" si="1">IF(E6="","",E6/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="54">
         <f t="shared" ref="G6:G33" si="2">E6 -C6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="68">
+      <c r="H6" s="55">
         <f t="shared" ref="H6:H19" si="3" xml:space="preserve"> IF(C6=0,0,G6 / C6 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="69"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="70">
+      <c r="I6" s="56"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="57">
         <f>J6 -I6</f>
         <v>0</v>
       </c>
-      <c r="L6" s="71">
+      <c r="L6" s="58">
         <f>IF(I6=0,0,ROUND(K6/I6 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M6" s="72"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="62"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="121" t="s">
+      <c r="A7" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="123" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65" t="str">
+      <c r="C7" s="51"/>
+      <c r="D7" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="66" t="str">
+      <c r="E7" s="51"/>
+      <c r="F7" s="53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="70">
+      <c r="I7" s="56"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="57">
         <f t="shared" ref="K7:K42" si="4">J7 -I7</f>
         <v>0</v>
       </c>
-      <c r="L7" s="71">
+      <c r="L7" s="58">
         <f t="shared" ref="L7:L42" si="5">IF(I7=0,0,ROUND(K7/I7 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M7" s="72"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-    </row>
-    <row r="8" spans="1:29" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="141" t="s">
+      <c r="M7" s="59"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="62"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="4"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+    </row>
+    <row r="8" spans="1:29" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="142" t="s">
+      <c r="B8" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65" t="str">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="66" t="str">
+      <c r="E8" s="51"/>
+      <c r="F8" s="53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G8" s="67">
+      <c r="G8" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H8" s="68">
+      <c r="H8" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="70">
+      <c r="I8" s="56"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L8" s="71">
+      <c r="L8" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M8" s="72"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="75"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="60"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="62"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="5"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
     </row>
     <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="123" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65" t="str">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="66" t="str">
+      <c r="E9" s="51"/>
+      <c r="F9" s="53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G9" s="67">
+      <c r="G9" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" s="68">
+      <c r="H9" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="70">
+      <c r="I9" s="56"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L9" s="71">
+      <c r="L9" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M9" s="72"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="62"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="4"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
     </row>
     <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="121" t="s">
+      <c r="A10" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65" t="str">
+      <c r="C10" s="51"/>
+      <c r="D10" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="66" t="str">
+      <c r="E10" s="51"/>
+      <c r="F10" s="53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G10" s="67">
+      <c r="G10" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H10" s="68">
+      <c r="H10" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I10" s="69"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="70">
+      <c r="I10" s="56"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L10" s="71">
+      <c r="L10" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M10" s="72"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="62"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="4"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
     </row>
     <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65" t="str">
+      <c r="C11" s="51"/>
+      <c r="D11" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="66" t="str">
+      <c r="E11" s="51"/>
+      <c r="F11" s="53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H11" s="68">
+      <c r="H11" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="70">
+      <c r="I11" s="56"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L11" s="71">
+      <c r="L11" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M11" s="72"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="62"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="4"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
     </row>
     <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121" t="s">
+      <c r="A12" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65" t="str">
+      <c r="C12" s="51"/>
+      <c r="D12" s="52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="66" t="str">
+      <c r="E12" s="51"/>
+      <c r="F12" s="53" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="68">
+      <c r="H12" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="70">
+      <c r="I12" s="56"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L12" s="71">
+      <c r="L12" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M12" s="72"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="62"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="4"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
     </row>
     <row r="13" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
-      <c r="B13" s="143" t="s">
+      <c r="A13" s="107"/>
+      <c r="B13" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65" t="str">
+      <c r="C13" s="51"/>
+      <c r="D13" s="52" t="str">
         <f xml:space="preserve"> IF(C13="","",ROUND(C13/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="66" t="str">
+      <c r="E13" s="51"/>
+      <c r="F13" s="53" t="str">
         <f>IF(E13="","",E13/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G13" s="67">
+      <c r="G13" s="54">
         <f>E13 -C13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="68">
+      <c r="H13" s="55">
         <f xml:space="preserve"> IF(C13=0,0,G13 / C13 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I13" s="69"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="70">
+      <c r="I13" s="56"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="57">
         <f>J13 -I13</f>
         <v>0</v>
       </c>
-      <c r="L13" s="71">
+      <c r="L13" s="58">
         <f>IF(I13=0,0,ROUND(K13/I13 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M13" s="72"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-    </row>
-    <row r="14" spans="1:29" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="128"/>
-      <c r="B14" s="143" t="s">
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="62"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="4"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+    </row>
+    <row r="14" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
+      <c r="B14" s="123" t="s">
         <v>104</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="65" t="str">
+      <c r="C14" s="51"/>
+      <c r="D14" s="52" t="str">
         <f xml:space="preserve"> IF(C14="","",ROUND(C14/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="66" t="str">
+      <c r="E14" s="51"/>
+      <c r="F14" s="53" t="str">
         <f>IF(E14="","",E14/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G14" s="67">
+      <c r="G14" s="54">
         <f>E14 -C14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="68">
+      <c r="H14" s="55">
         <f xml:space="preserve"> IF(C14=0,0,G14 / C14 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I14" s="69"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="70">
+      <c r="I14" s="56"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="57">
         <f>J14 -I14</f>
         <v>0</v>
       </c>
-      <c r="L14" s="71">
+      <c r="L14" s="58">
         <f>IF(I14=0,0,ROUND(K14/I14 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M14" s="72"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="75"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="5"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="6"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="6"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-    </row>
-    <row r="15" spans="1:29" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="128"/>
-      <c r="B15" s="117" t="s">
+      <c r="M14" s="59"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="62"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="4"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+    </row>
+    <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="107"/>
+      <c r="B15" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65" t="str">
+      <c r="C15" s="51"/>
+      <c r="D15" s="52" t="str">
         <f xml:space="preserve"> IF(C15="","",ROUND(C15/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="66" t="str">
+      <c r="E15" s="51"/>
+      <c r="F15" s="53" t="str">
         <f>IF(E15="","",E15/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G15" s="67">
+      <c r="G15" s="54">
         <f>E15 -C15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="68">
+      <c r="H15" s="55">
         <f xml:space="preserve"> IF(C15=0,0,G15 / C15 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I15" s="69"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="70">
+      <c r="I15" s="56"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="57">
         <f>J15 -I15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="71">
+      <c r="L15" s="58">
         <f>IF(I15=0,0,ROUND(K15/I15 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M15" s="72"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="75"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="5"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-    </row>
-    <row r="16" spans="1:29" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="128"/>
-      <c r="B16" s="117" t="s">
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="62"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="4"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+    </row>
+    <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="107"/>
+      <c r="B16" s="103" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65" t="str">
+      <c r="C16" s="51"/>
+      <c r="D16" s="52" t="str">
         <f xml:space="preserve"> IF(C16="","",ROUND(C16/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="66" t="str">
+      <c r="E16" s="51"/>
+      <c r="F16" s="53" t="str">
         <f>IF(E16="","",E16/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G16" s="67">
+      <c r="G16" s="54">
         <f>E16 -C16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="68">
+      <c r="H16" s="55">
         <f xml:space="preserve"> IF(C16=0,0,G16 / C16 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I16" s="69"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="70">
+      <c r="I16" s="56"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="57">
         <f>J16 -I16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="71">
+      <c r="L16" s="58">
         <f>IF(I16=0,0,ROUND(K16/I16 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M16" s="72"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="75"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="5"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
-    </row>
-    <row r="17" spans="1:36" s="1" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="128"/>
-      <c r="B17" s="117" t="s">
+      <c r="M16" s="59"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="62"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="4"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+    </row>
+    <row r="17" spans="1:36" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="107"/>
+      <c r="B17" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="75"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="5"/>
-      <c r="U17" s="6"/>
-      <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="6"/>
-      <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
-      <c r="AA17" s="6"/>
-      <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="60"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="62"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="4"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
     </row>
     <row r="18" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="140" t="s">
+      <c r="B18" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65" t="str">
+      <c r="C18" s="51"/>
+      <c r="D18" s="52" t="str">
         <f t="shared" ref="D18:D40" si="6" xml:space="preserve"> IF(C18="","",ROUND(C18/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="66" t="str">
+      <c r="E18" s="51"/>
+      <c r="F18" s="53" t="str">
         <f t="shared" ref="F18:F40" si="7">IF(E18="","",E18/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G18" s="67">
+      <c r="G18" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H18" s="68">
+      <c r="H18" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="70">
+      <c r="I18" s="56"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L18" s="71">
+      <c r="L18" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M18" s="72"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="62"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="4"/>
     </row>
     <row r="19" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="121" t="s">
+      <c r="A19" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="140" t="s">
+      <c r="B19" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65" t="str">
+      <c r="C19" s="51"/>
+      <c r="D19" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="66" t="str">
+      <c r="E19" s="51"/>
+      <c r="F19" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H19" s="68">
+      <c r="H19" s="55">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="70">
+      <c r="I19" s="56"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L19" s="71">
+      <c r="L19" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M19" s="72"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="62"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="4"/>
     </row>
     <row r="20" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="140" t="s">
+      <c r="B20" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="65" t="str">
+      <c r="C20" s="51"/>
+      <c r="D20" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="66" t="str">
+      <c r="E20" s="51"/>
+      <c r="F20" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H20" s="68">
+      <c r="H20" s="55">
         <f t="shared" ref="H20:H25" si="8" xml:space="preserve"> IF(C20=0,0,G20 / C20 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="70">
+      <c r="I20" s="56"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L20" s="71">
+      <c r="L20" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M20" s="72"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="62"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="4"/>
     </row>
     <row r="21" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="121"/>
-      <c r="B21" s="140" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65" t="str">
+      <c r="C21" s="51"/>
+      <c r="D21" s="52" t="str">
         <f xml:space="preserve"> IF(C21="","",ROUND(C21/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="66" t="str">
+      <c r="E21" s="51"/>
+      <c r="F21" s="53" t="str">
         <f>IF(E21="","",E21/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="54">
         <f>E21 -C21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="68">
+      <c r="H21" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="70">
+      <c r="I21" s="56"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="57">
         <f>J21 -I21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="71">
+      <c r="L21" s="58">
         <f>IF(I21=0,0,ROUND(K21/I21 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M21" s="72"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="62"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="4"/>
     </row>
     <row r="22" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="121"/>
-      <c r="B22" s="140" t="s">
+      <c r="A22" s="107"/>
+      <c r="B22" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="65" t="str">
+      <c r="C22" s="63"/>
+      <c r="D22" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="66" t="str">
+      <c r="E22" s="51"/>
+      <c r="F22" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G22" s="67">
+      <c r="G22" s="54">
         <f>E22 -C22</f>
         <v>0</v>
       </c>
-      <c r="H22" s="68">
+      <c r="H22" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I22" s="77"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="70">
+      <c r="I22" s="64"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="57">
         <f>J22 -I22</f>
         <v>0</v>
       </c>
-      <c r="L22" s="71">
+      <c r="L22" s="58">
         <f>IF(I22=0,0,ROUND(K22/I22 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M22" s="72"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="62"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="140" t="s">
+      <c r="B23" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65" t="str">
+      <c r="C23" s="51"/>
+      <c r="D23" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="66" t="str">
+      <c r="E23" s="51"/>
+      <c r="F23" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G23" s="67">
+      <c r="G23" s="54">
         <f>E23 -C23</f>
         <v>0</v>
       </c>
-      <c r="H23" s="68">
+      <c r="H23" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I23" s="69"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="70">
+      <c r="I23" s="56"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L23" s="71">
+      <c r="L23" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M23" s="72"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="141" t="s">
+      <c r="M23" s="59"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="62"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="4"/>
+    </row>
+    <row r="24" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="144" t="s">
+      <c r="B24" s="126" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="65" t="str">
+      <c r="C24" s="63"/>
+      <c r="D24" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="66" t="str">
+      <c r="E24" s="51"/>
+      <c r="F24" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="54">
         <f>E24 -C24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="68">
+      <c r="H24" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I24" s="77"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="70">
+      <c r="I24" s="64"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="57">
         <f>J24 -I24</f>
         <v>0</v>
       </c>
-      <c r="L24" s="71">
+      <c r="L24" s="58">
         <f>IF(I24=0,0,ROUND(K24/I24 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M24" s="72"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="75"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="62"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="4"/>
+      <c r="R24" s="3"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -4505,1144 +4378,1090 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="144" t="s">
+      <c r="B25" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="65" t="str">
+      <c r="C25" s="63"/>
+      <c r="D25" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="66" t="str">
+      <c r="E25" s="51"/>
+      <c r="F25" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="54">
         <f>E25 -C25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="68">
+      <c r="H25" s="55">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="I25" s="77"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="70">
+      <c r="I25" s="64"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="57">
         <f>J25 -I25</f>
         <v>0</v>
       </c>
-      <c r="L25" s="71">
+      <c r="L25" s="58">
         <f>IF(I25=0,0,ROUND(K25/I25 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M25" s="72"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-    </row>
-    <row r="26" spans="1:36" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="128" t="s">
+      <c r="M25" s="59"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="62"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="4"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+    </row>
+    <row r="26" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="145" t="s">
+      <c r="B26" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="65" t="str">
+      <c r="C26" s="63"/>
+      <c r="D26" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="66" t="str">
+      <c r="E26" s="51"/>
+      <c r="F26" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H26" s="68">
+      <c r="H26" s="55">
         <f t="shared" ref="H26:H41" si="9" xml:space="preserve"> IF(C26=0,0,G26 / C26 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I26" s="77"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="70">
+      <c r="I26" s="64"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L26" s="71">
+      <c r="L26" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M26" s="72"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="75"/>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:36" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="128" t="s">
+      <c r="M26" s="59"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="62"/>
+      <c r="R26" s="3"/>
+    </row>
+    <row r="27" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="145" t="s">
+      <c r="B27" s="126" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="76"/>
-      <c r="D27" s="65" t="str">
+      <c r="C27" s="63"/>
+      <c r="D27" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="66" t="str">
+      <c r="E27" s="51"/>
+      <c r="F27" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G27" s="67">
+      <c r="G27" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H27" s="68">
+      <c r="H27" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I27" s="77"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="70">
+      <c r="I27" s="64"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L27" s="71">
+      <c r="L27" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M27" s="72"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="75"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="5"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-      <c r="AD27" s="6"/>
-      <c r="AE27" s="6"/>
-      <c r="AF27" s="6"/>
-      <c r="AG27" s="6"/>
-      <c r="AH27" s="6"/>
-      <c r="AI27" s="6"/>
-      <c r="AJ27" s="6"/>
-    </row>
-    <row r="28" spans="1:36" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="128" t="s">
+      <c r="M27" s="59"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="62"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="4"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+    </row>
+    <row r="28" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="145" t="s">
+      <c r="B28" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="65" t="str">
+      <c r="C28" s="63"/>
+      <c r="D28" s="52" t="str">
         <f xml:space="preserve"> IF(C28="","",ROUND(C28/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="66" t="str">
+      <c r="E28" s="51"/>
+      <c r="F28" s="53" t="str">
         <f>IF(E28="","",E28/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="54">
         <f>E28 -C28</f>
         <v>0</v>
       </c>
-      <c r="H28" s="68">
+      <c r="H28" s="55">
         <f xml:space="preserve"> IF(C28=0,0,G28 / C28 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I28" s="77"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="70">
+      <c r="I28" s="64"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="57">
         <f>J28 -I28</f>
         <v>0</v>
       </c>
-      <c r="L28" s="71">
+      <c r="L28" s="58">
         <f>IF(I28=0,0,ROUND(K28/I28 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M28" s="72"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="75"/>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:36" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="128" t="s">
+      <c r="M28" s="59"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="62"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="145" t="s">
+      <c r="B29" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="65" t="str">
+      <c r="C29" s="63"/>
+      <c r="D29" s="52" t="str">
         <f xml:space="preserve"> IF(C29="","",ROUND(C29/$C$42 * 100,2))</f>
         <v/>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="66" t="str">
+      <c r="E29" s="51"/>
+      <c r="F29" s="53" t="str">
         <f>IF(E29="","",E29/$E$42 * 100)</f>
         <v/>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="54">
         <f>E29 -C29</f>
         <v>0</v>
       </c>
-      <c r="H29" s="68">
+      <c r="H29" s="55">
         <f xml:space="preserve"> IF(C29=0,0,G29 / C29 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I29" s="77"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="70">
+      <c r="I29" s="64"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="57">
         <f>J29 -I29</f>
         <v>0</v>
       </c>
-      <c r="L29" s="71">
+      <c r="L29" s="58">
         <f>IF(I29=0,0,ROUND(K29/I29 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M29" s="72"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="75"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="5"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-      <c r="AD29" s="6"/>
-      <c r="AE29" s="6"/>
-      <c r="AF29" s="6"/>
-      <c r="AG29" s="6"/>
-      <c r="AH29" s="6"/>
-      <c r="AI29" s="6"/>
-      <c r="AJ29" s="6"/>
-    </row>
-    <row r="30" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="141" t="s">
+      <c r="M29" s="59"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="62"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="4"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+    </row>
+    <row r="30" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="146" t="s">
+      <c r="B30" s="127" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="63">
+      <c r="C30" s="50">
         <f>SUM(C6:C27)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="78" t="e">
+      <c r="D30" s="65" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E30" s="63">
+      <c r="E30" s="50">
         <f>SUM(E6:E27)</f>
         <v>0</v>
       </c>
-      <c r="F30" s="79" t="e">
+      <c r="F30" s="66" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="80">
+      <c r="G30" s="67">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H30" s="81">
+      <c r="H30" s="68">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I30" s="82">
+      <c r="I30" s="69">
         <f xml:space="preserve"> SUM(I6:I27)</f>
         <v>0</v>
       </c>
-      <c r="J30" s="63">
+      <c r="J30" s="50">
         <f xml:space="preserve"> SUM(J6:J27)</f>
         <v>0</v>
       </c>
-      <c r="K30" s="80">
+      <c r="K30" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L30" s="83">
+      <c r="L30" s="70">
         <f>IF(I30=0,0,ROUND(K30/I30 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M30" s="72"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="84"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="71"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="5"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="4"/>
       <c r="T30" s="1"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
-      <c r="AE30" s="7"/>
-      <c r="AF30" s="7"/>
-      <c r="AG30" s="7"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
-      <c r="AJ30" s="7"/>
-    </row>
-    <row r="31" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="141" t="s">
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+    </row>
+    <row r="31" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="147" t="s">
+      <c r="B31" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86" t="str">
+      <c r="C31" s="72"/>
+      <c r="D31" s="73" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E31" s="85"/>
-      <c r="F31" s="87" t="str">
+      <c r="E31" s="72"/>
+      <c r="F31" s="74" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G31" s="67">
+      <c r="G31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H31" s="88">
+      <c r="H31" s="75">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I31" s="89"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="67">
+      <c r="I31" s="76"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L31" s="90">
+      <c r="L31" s="77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M31" s="72"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="75"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="62"/>
       <c r="Q31" s="1"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="5"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="4"/>
       <c r="T31" s="1"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
-      <c r="AH31" s="7"/>
-      <c r="AI31" s="7"/>
-      <c r="AJ31" s="7"/>
-    </row>
-    <row r="32" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="141" t="s">
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+    </row>
+    <row r="32" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="148" t="s">
+      <c r="B32" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65" t="str">
+      <c r="C32" s="51"/>
+      <c r="D32" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="66" t="str">
+      <c r="E32" s="51"/>
+      <c r="F32" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G32" s="67">
+      <c r="G32" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H32" s="68">
+      <c r="H32" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I32" s="69"/>
-      <c r="J32" s="64"/>
-      <c r="K32" s="70">
+      <c r="I32" s="56"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L32" s="71">
+      <c r="L32" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M32" s="72"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="74"/>
-      <c r="P32" s="75"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="62"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="5"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="4"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7"/>
-      <c r="AJ32" s="7"/>
-    </row>
-    <row r="33" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="141" t="s">
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+    </row>
+    <row r="33" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="148" t="s">
+      <c r="B33" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="65" t="str">
+      <c r="C33" s="51"/>
+      <c r="D33" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="66" t="str">
+      <c r="E33" s="51"/>
+      <c r="F33" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G33" s="67">
+      <c r="G33" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H33" s="68">
+      <c r="H33" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I33" s="69"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="70">
+      <c r="I33" s="56"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L33" s="71">
+      <c r="L33" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M33" s="72"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="75"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="62"/>
       <c r="Q33" s="1"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="5"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="4"/>
       <c r="T33" s="1"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="7"/>
-      <c r="Y33" s="7"/>
-      <c r="Z33" s="7"/>
-      <c r="AA33" s="7"/>
-      <c r="AB33" s="7"/>
-      <c r="AC33" s="7"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-      <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7"/>
-      <c r="AJ33" s="7"/>
-    </row>
-    <row r="34" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="141" t="s">
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+    </row>
+    <row r="34" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="140" t="s">
+      <c r="B34" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65" t="str">
+      <c r="C34" s="51"/>
+      <c r="D34" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E34" s="64"/>
-      <c r="F34" s="66" t="str">
+      <c r="E34" s="51"/>
+      <c r="F34" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="54">
         <f t="shared" ref="G34:G40" si="10">E34 -C34</f>
         <v>0</v>
       </c>
-      <c r="H34" s="68">
+      <c r="H34" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I34" s="69"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="70">
+      <c r="I34" s="56"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L34" s="71">
+      <c r="L34" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M34" s="72"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="75"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="62"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="5"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="4"/>
       <c r="T34" s="1"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="7"/>
-      <c r="AB34" s="7"/>
-      <c r="AC34" s="7"/>
-      <c r="AD34" s="7"/>
-      <c r="AE34" s="7"/>
-      <c r="AF34" s="7"/>
-      <c r="AG34" s="7"/>
-      <c r="AH34" s="7"/>
-      <c r="AI34" s="7"/>
-      <c r="AJ34" s="7"/>
-    </row>
-    <row r="35" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="141" t="s">
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+    </row>
+    <row r="35" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="140" t="s">
+      <c r="B35" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="65" t="str">
+      <c r="C35" s="51"/>
+      <c r="D35" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="66" t="str">
+      <c r="E35" s="51"/>
+      <c r="F35" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G35" s="67">
+      <c r="G35" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H35" s="68">
+      <c r="H35" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I35" s="69"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="70">
+      <c r="I35" s="56"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L35" s="71">
+      <c r="L35" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M35" s="72"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="75"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="62"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="5"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="4"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="7"/>
-      <c r="AC35" s="7"/>
-      <c r="AD35" s="7"/>
-      <c r="AE35" s="7"/>
-      <c r="AF35" s="7"/>
-      <c r="AG35" s="7"/>
-      <c r="AH35" s="7"/>
-      <c r="AI35" s="7"/>
-      <c r="AJ35" s="7"/>
-    </row>
-    <row r="36" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="141" t="s">
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+    </row>
+    <row r="36" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="140" t="s">
+      <c r="B36" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="65" t="str">
+      <c r="C36" s="51"/>
+      <c r="D36" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="66" t="str">
+      <c r="E36" s="51"/>
+      <c r="F36" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G36" s="67">
+      <c r="G36" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H36" s="68">
+      <c r="H36" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I36" s="69"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="70">
+      <c r="I36" s="56"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L36" s="71">
+      <c r="L36" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M36" s="72"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="75"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="62"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
-      <c r="AG36" s="9"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="9"/>
-      <c r="AJ36" s="9"/>
-    </row>
-    <row r="37" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="141"/>
-      <c r="B37" s="140" t="s">
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+    </row>
+    <row r="37" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="124"/>
+      <c r="B37" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="65" t="str">
+      <c r="C37" s="51"/>
+      <c r="D37" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E37" s="64"/>
-      <c r="F37" s="66" t="str">
+      <c r="E37" s="51"/>
+      <c r="F37" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G37" s="67">
+      <c r="G37" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H37" s="68">
+      <c r="H37" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I37" s="69"/>
-      <c r="J37" s="64"/>
-      <c r="K37" s="70">
+      <c r="I37" s="56"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L37" s="71">
+      <c r="L37" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M37" s="72"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="75"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="62"/>
       <c r="Q37" s="1"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
-      <c r="AJ37" s="9"/>
-    </row>
-    <row r="38" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="141" t="s">
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="5"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+    </row>
+    <row r="38" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="140" t="s">
+      <c r="B38" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="65" t="str">
+      <c r="C38" s="51"/>
+      <c r="D38" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E38" s="64"/>
-      <c r="F38" s="66" t="str">
+      <c r="E38" s="51"/>
+      <c r="F38" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G38" s="67">
+      <c r="G38" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H38" s="68">
+      <c r="H38" s="55">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I38" s="69"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="70">
+      <c r="I38" s="56"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="57">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L38" s="71">
+      <c r="L38" s="58">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M38" s="72"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="75"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="62"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="9"/>
-    </row>
-    <row r="39" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="141"/>
-      <c r="B39" s="145" t="s">
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+    </row>
+    <row r="39" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="124"/>
+      <c r="B39" s="126" t="s">
         <v>100</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65" t="str">
+      <c r="C39" s="51"/>
+      <c r="D39" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="66" t="str">
+      <c r="E39" s="51"/>
+      <c r="F39" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G39" s="67">
+      <c r="G39" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H39" s="68">
+      <c r="H39" s="55">
         <f xml:space="preserve"> IF(C39=0,0,G39 / C39 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="69"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="70">
+      <c r="I39" s="56"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="57">
         <f>J39 -I39</f>
         <v>0</v>
       </c>
-      <c r="L39" s="71">
+      <c r="L39" s="58">
         <f>IF(I39=0,0,ROUND(K39/I39 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M39" s="72"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="75"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="62"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="9"/>
-      <c r="AJ39" s="9"/>
-    </row>
-    <row r="40" spans="1:36" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="141"/>
-      <c r="B40" s="145" t="s">
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+    </row>
+    <row r="40" spans="1:36" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="124"/>
+      <c r="B40" s="126" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65" t="str">
+      <c r="C40" s="51"/>
+      <c r="D40" s="52" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E40" s="64"/>
-      <c r="F40" s="66" t="str">
+      <c r="E40" s="51"/>
+      <c r="F40" s="53" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G40" s="67">
+      <c r="G40" s="54">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H40" s="68">
+      <c r="H40" s="55">
         <f xml:space="preserve"> IF(C40=0,0,G40 / C40 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="69"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="70">
+      <c r="I40" s="56"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="57">
         <f>J40 -I40</f>
         <v>0</v>
       </c>
-      <c r="L40" s="71">
+      <c r="L40" s="58">
         <f>IF(I40=0,0,ROUND(K40/I40 *100,4))</f>
         <v>0</v>
       </c>
-      <c r="M40" s="72"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="75"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="62"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
-      <c r="AD40" s="9"/>
-      <c r="AE40" s="9"/>
-      <c r="AF40" s="9"/>
-      <c r="AG40" s="9"/>
-      <c r="AH40" s="9"/>
-      <c r="AI40" s="9"/>
-      <c r="AJ40" s="9"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="5"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="5"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
     </row>
     <row r="41" spans="1:36" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="121" t="s">
+      <c r="A41" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="146" t="s">
+      <c r="B41" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="63">
+      <c r="C41" s="50">
         <f>SUM(C31:C40)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="78" t="e">
+      <c r="D41" s="65" t="e">
         <f xml:space="preserve"> 100 - D30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="63">
+      <c r="E41" s="50">
         <f>SUM(E31:E40)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="79" t="e">
+      <c r="F41" s="66" t="e">
         <f xml:space="preserve"> 100 - F30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="91">
+      <c r="G41" s="78">
         <f>SUM(G31:G40)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="81">
+      <c r="H41" s="68">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="I41" s="82">
+      <c r="I41" s="69">
         <f>SUM(I31:I40)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="63">
+      <c r="J41" s="50">
         <f>SUM(J31:J40)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="80">
+      <c r="K41" s="67">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L41" s="83">
+      <c r="L41" s="70">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M41" s="92"/>
-      <c r="N41" s="93"/>
-      <c r="O41" s="94"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="7"/>
-      <c r="Y41" s="7"/>
-      <c r="Z41" s="7"/>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="7"/>
-      <c r="AC41" s="7"/>
-      <c r="AD41" s="7"/>
-      <c r="AE41" s="7"/>
-      <c r="AF41" s="7"/>
-      <c r="AG41" s="7"/>
-      <c r="AH41" s="7"/>
-      <c r="AI41" s="7"/>
-      <c r="AJ41" s="7"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="81"/>
+      <c r="P41" s="71"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="5"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="5"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
+      <c r="AI41" s="5"/>
+      <c r="AJ41" s="5"/>
     </row>
     <row r="42" spans="1:36" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="121"/>
-      <c r="B42" s="149" t="s">
+      <c r="A42" s="107"/>
+      <c r="B42" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="95">
+      <c r="C42" s="82">
         <f>C30 +C41</f>
         <v>0</v>
       </c>
-      <c r="D42" s="96">
+      <c r="D42" s="83">
         <v>100</v>
       </c>
-      <c r="E42" s="95">
+      <c r="E42" s="82">
         <f>E30 + E41</f>
         <v>0</v>
       </c>
-      <c r="F42" s="97">
+      <c r="F42" s="84">
         <v>100</v>
       </c>
-      <c r="G42" s="98">
+      <c r="G42" s="85">
         <f>G30 + G41</f>
         <v>0</v>
       </c>
-      <c r="H42" s="88">
+      <c r="H42" s="75">
         <f xml:space="preserve"> IF(C42=0,0,G42 / C42 * 100)</f>
         <v>0</v>
       </c>
-      <c r="I42" s="99">
+      <c r="I42" s="86">
         <f>I30+I41</f>
         <v>0</v>
       </c>
-      <c r="J42" s="95">
+      <c r="J42" s="82">
         <f>J30+J41</f>
         <v>0</v>
       </c>
-      <c r="K42" s="67">
+      <c r="K42" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L42" s="90">
+      <c r="L42" s="77">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M42" s="100"/>
-      <c r="N42" s="101"/>
-      <c r="O42" s="102"/>
-      <c r="P42" s="103"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="1:36" s="11" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="121"/>
-      <c r="B43" s="197" t="s">
+      <c r="M42" s="87"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="89"/>
+      <c r="P42" s="90"/>
+      <c r="R42" s="5"/>
+    </row>
+    <row r="43" spans="1:36" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="107"/>
+      <c r="B43" s="165" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="198"/>
-      <c r="D43" s="198"/>
-      <c r="E43" s="198"/>
-      <c r="F43" s="198"/>
-      <c r="G43" s="198"/>
-      <c r="H43" s="198"/>
-      <c r="I43" s="198"/>
-      <c r="J43" s="198"/>
-      <c r="K43" s="198"/>
-      <c r="L43" s="198"/>
-      <c r="M43" s="198"/>
-      <c r="N43" s="198"/>
-      <c r="O43" s="198"/>
-      <c r="P43" s="198"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
+      <c r="C43" s="166"/>
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="166"/>
+      <c r="G43" s="166"/>
+      <c r="H43" s="166"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="166"/>
+      <c r="K43" s="166"/>
+      <c r="L43" s="166"/>
+      <c r="M43" s="166"/>
+      <c r="N43" s="166"/>
+      <c r="O43" s="166"/>
+      <c r="P43" s="166"/>
     </row>
     <row r="44" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="121"/>
-      <c r="B44" s="199" t="str">
+      <c r="A44" s="107"/>
+      <c r="B44" s="167" t="str">
         <f>IF(F1="%","註2：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>註2：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。</v>
       </c>
-      <c r="C44" s="200"/>
-      <c r="D44" s="200"/>
-      <c r="E44" s="200"/>
-      <c r="F44" s="200"/>
-      <c r="G44" s="200"/>
-      <c r="H44" s="200"/>
-      <c r="I44" s="200"/>
-      <c r="J44" s="200"/>
-      <c r="K44" s="200"/>
-      <c r="L44" s="200"/>
-      <c r="M44" s="200"/>
-      <c r="N44" s="200"/>
-      <c r="O44" s="200"/>
-      <c r="P44" s="200"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-    </row>
-    <row r="45" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
+      <c r="C44" s="168"/>
+      <c r="D44" s="168"/>
+      <c r="E44" s="168"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="168"/>
+      <c r="H44" s="168"/>
+      <c r="I44" s="168"/>
+      <c r="J44" s="168"/>
+      <c r="K44" s="168"/>
+      <c r="L44" s="168"/>
+      <c r="M44" s="168"/>
+      <c r="N44" s="168"/>
+      <c r="O44" s="168"/>
+      <c r="P44" s="168"/>
     </row>
     <row r="46" spans="1:36" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F46" s="61"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
+      <c r="F46" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5675,7 +5494,7 @@
     <tabColor theme="9" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
@@ -5687,1069 +5506,1046 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="30" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="14.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="14.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="13" style="30" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="34" customWidth="1"/>
-    <col min="16" max="16384" width="11.625" style="30"/>
+    <col min="1" max="1" width="9.125" style="23" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="14.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="14.625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="13" style="23" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="23" customWidth="1"/>
+    <col min="16" max="16384" width="11.625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="41.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="30">
+      <c r="C1" s="23">
         <v>3</v>
       </c>
-      <c r="D1" s="30">
+      <c r="D1" s="23">
         <v>8</v>
       </c>
-      <c r="F1" s="150" t="s">
+      <c r="F1" s="105" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:16" s="34" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="219" t="str">
+    <row r="3" spans="1:16" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="186" t="str">
         <f>"                    附表2　期貨暨選擇權最近6個月("&amp;C1&amp;"至"&amp;D1&amp;"月)市場成交量彙總表"&amp;IF(F1="1","(盤後交易時段)",IF(F1="0","(一般交易時段)",""))</f>
         <v xml:space="preserve">                    附表2　期貨暨選擇權最近6個月(3至8月)市場成交量彙總表</v>
       </c>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="O3" s="152"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="131"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="155"/>
-      <c r="E4" s="223" t="s">
+      <c r="C4" s="133"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="224"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="223" t="s">
+      <c r="F4" s="190"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="191"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="190" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="223"/>
-      <c r="M4" s="223"/>
-      <c r="N4" s="224"/>
-      <c r="O4" s="156"/>
-    </row>
-    <row r="5" spans="1:16" s="162" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="157" t="s">
+      <c r="L4" s="190"/>
+      <c r="M4" s="190"/>
+      <c r="N4" s="191"/>
+      <c r="O4" s="135"/>
+    </row>
+    <row r="5" spans="1:16" s="141" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="222"/>
-      <c r="C5" s="158" t="str">
+      <c r="B5" s="189"/>
+      <c r="C5" s="137" t="str">
         <f>$C$1 &amp;"月"</f>
         <v>3月</v>
       </c>
-      <c r="D5" s="159" t="str">
+      <c r="D5" s="138" t="str">
         <f>IF($C$1+1&lt;=12,$C$1+1,$C$1+1-12)&amp;"月"</f>
         <v>4月</v>
       </c>
-      <c r="E5" s="159" t="str">
+      <c r="E5" s="138" t="str">
         <f>IF($C$1+2&lt;=12,$C$1+2,$C$1+2-12)&amp;"月"</f>
         <v>5月</v>
       </c>
-      <c r="F5" s="159" t="str">
+      <c r="F5" s="138" t="str">
         <f>IF($C$1+3&lt;=12,$C$1+3,$C$1+3-12)&amp;"月"</f>
         <v>6月</v>
       </c>
-      <c r="G5" s="159" t="str">
+      <c r="G5" s="138" t="str">
         <f>IF($C$1+4&lt;=12,$C$1+4,$C$1+4-12)&amp;"月"</f>
         <v>7月</v>
       </c>
-      <c r="H5" s="160" t="str">
+      <c r="H5" s="139" t="str">
         <f>IF($C$1+5&lt;=12,$C$1+5,$C$1+5-12)&amp;"月"</f>
         <v>8月</v>
       </c>
-      <c r="I5" s="159" t="str">
+      <c r="I5" s="138" t="str">
         <f>$C$1 &amp;"月"</f>
         <v>3月</v>
       </c>
-      <c r="J5" s="159" t="str">
+      <c r="J5" s="138" t="str">
         <f>IF($C$1+1&lt;=12,$C$1+1,$C$1+1-12)&amp;"月"</f>
         <v>4月</v>
       </c>
-      <c r="K5" s="159" t="str">
+      <c r="K5" s="138" t="str">
         <f>IF($C$1+2&lt;=12,$C$1+2,$C$1+2-12)&amp;"月"</f>
         <v>5月</v>
       </c>
-      <c r="L5" s="159" t="str">
+      <c r="L5" s="138" t="str">
         <f>IF($C$1+3&lt;=12,$C$1+3,$C$1+3-12)&amp;"月"</f>
         <v>6月</v>
       </c>
-      <c r="M5" s="159" t="str">
+      <c r="M5" s="138" t="str">
         <f>IF($C$1+4&lt;=12,$C$1+4,$C$1+4-12)&amp;"月"</f>
         <v>7月</v>
       </c>
-      <c r="N5" s="160" t="str">
+      <c r="N5" s="139" t="str">
         <f>IF($C$1+5&lt;=12,$C$1+5,$C$1+5-12)&amp;"月"</f>
         <v>8月</v>
       </c>
-      <c r="O5" s="161"/>
+      <c r="O5" s="140"/>
     </row>
     <row r="6" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="163" t="s">
+      <c r="B6" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="164"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="165"/>
-      <c r="F6" s="165"/>
-      <c r="G6" s="165"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="169"/>
-      <c r="O6" s="110"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="148"/>
+      <c r="O6" s="97"/>
     </row>
     <row r="7" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="142" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="165"/>
-      <c r="E7" s="165"/>
-      <c r="F7" s="165"/>
-      <c r="G7" s="165"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="169"/>
-      <c r="O7" s="110"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="97"/>
     </row>
     <row r="8" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="163" t="s">
+      <c r="B8" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="165"/>
-      <c r="F8" s="165"/>
-      <c r="G8" s="165"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="110"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="146"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="148"/>
+      <c r="O8" s="97"/>
     </row>
     <row r="9" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="104" t="s">
+      <c r="A9" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="164"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="168"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="168"/>
-      <c r="M9" s="168"/>
-      <c r="N9" s="169"/>
-      <c r="O9" s="110"/>
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="97"/>
     </row>
     <row r="10" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="163" t="s">
+      <c r="B10" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="164"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="169"/>
-      <c r="O10" s="110"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="148"/>
+      <c r="O10" s="97"/>
     </row>
     <row r="11" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="164"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="F11" s="165"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="165"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="168"/>
-      <c r="M11" s="168"/>
-      <c r="N11" s="169"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="172"/>
+      <c r="C11" s="143"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="148"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="150"/>
     </row>
     <row r="12" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="164"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="168"/>
-      <c r="L12" s="168"/>
-      <c r="M12" s="168"/>
-      <c r="N12" s="169"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="172"/>
+      <c r="C12" s="143"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="148"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="150"/>
     </row>
     <row r="13" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
-      <c r="B13" s="173" t="s">
+      <c r="A13" s="98"/>
+      <c r="B13" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="164"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="165"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="165"/>
-      <c r="M13" s="165"/>
-      <c r="N13" s="166"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="111"/>
-    </row>
-    <row r="14" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="174"/>
-      <c r="B14" s="173" t="s">
+      <c r="C13" s="143"/>
+      <c r="D13" s="144"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="97"/>
+    </row>
+    <row r="14" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="98"/>
+      <c r="B14" s="151" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="175"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="177"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="178"/>
-    </row>
-    <row r="15" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="174" t="s">
+      <c r="C14" s="143"/>
+      <c r="D14" s="144"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="97"/>
+    </row>
+    <row r="15" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="175"/>
-      <c r="D15" s="176"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="176"/>
-      <c r="N15" s="177"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="178"/>
-    </row>
-    <row r="16" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="174"/>
-      <c r="B16" s="118" t="s">
+      <c r="C15" s="143"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="144"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="97"/>
+    </row>
+    <row r="16" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="98"/>
+      <c r="B16" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="175"/>
-      <c r="D16" s="176"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="176"/>
-      <c r="K16" s="176"/>
-      <c r="L16" s="176"/>
-      <c r="M16" s="176"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="178"/>
-    </row>
-    <row r="17" spans="1:16" s="34" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="174"/>
-      <c r="B17" s="118" t="s">
+      <c r="C16" s="143"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="97"/>
+    </row>
+    <row r="17" spans="1:16" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="98"/>
+      <c r="B17" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="175"/>
-      <c r="D17" s="176"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="176"/>
-      <c r="K17" s="176"/>
-      <c r="L17" s="176"/>
-      <c r="M17" s="176"/>
-      <c r="N17" s="177"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="178"/>
+      <c r="C17" s="143"/>
+      <c r="D17" s="144"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="97"/>
     </row>
     <row r="18" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="164"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="168"/>
-      <c r="M18" s="168"/>
-      <c r="N18" s="169"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="172"/>
+      <c r="C18" s="143"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="150"/>
     </row>
     <row r="19" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="171" t="s">
+      <c r="B19" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="164"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="165"/>
-      <c r="J19" s="165"/>
-      <c r="K19" s="165"/>
-      <c r="L19" s="165"/>
-      <c r="M19" s="165"/>
-      <c r="N19" s="169"/>
-      <c r="O19" s="110"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="144"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="97"/>
     </row>
     <row r="20" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="165"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="165"/>
-      <c r="J20" s="165"/>
-      <c r="K20" s="165"/>
-      <c r="L20" s="165"/>
-      <c r="M20" s="165"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="172"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="150"/>
     </row>
     <row r="21" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="179" t="s">
+      <c r="A21" s="98"/>
+      <c r="B21" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="164"/>
-      <c r="D21" s="165"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="165"/>
-      <c r="K21" s="165"/>
-      <c r="L21" s="165"/>
-      <c r="M21" s="165"/>
-      <c r="N21" s="166"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="172"/>
+      <c r="C21" s="143"/>
+      <c r="D21" s="144"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="150"/>
     </row>
     <row r="22" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
-      <c r="B22" s="179" t="s">
+      <c r="A22" s="98"/>
+      <c r="B22" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="164"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="165"/>
-      <c r="K22" s="165"/>
-      <c r="L22" s="165"/>
-      <c r="M22" s="165"/>
-      <c r="N22" s="166"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="172"/>
+      <c r="C22" s="143"/>
+      <c r="D22" s="144"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="150"/>
     </row>
     <row r="23" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="179" t="s">
+      <c r="B23" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="165"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="165"/>
-      <c r="J23" s="165"/>
-      <c r="K23" s="165"/>
-      <c r="L23" s="165"/>
-      <c r="M23" s="165"/>
-      <c r="N23" s="166"/>
-      <c r="O23" s="110"/>
-      <c r="P23" s="172"/>
-    </row>
-    <row r="24" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="174" t="s">
+      <c r="C23" s="143"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="150"/>
+    </row>
+    <row r="24" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="179" t="s">
+      <c r="B24" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="165"/>
-      <c r="J24" s="165"/>
-      <c r="K24" s="165"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="166"/>
-      <c r="O24" s="110"/>
-      <c r="P24" s="180"/>
-    </row>
-    <row r="25" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="174"/>
-      <c r="B25" s="179" t="s">
+      <c r="C24" s="143"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="150"/>
+    </row>
+    <row r="25" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="98"/>
+      <c r="B25" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="164"/>
-      <c r="D25" s="165"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="165"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="165"/>
-      <c r="J25" s="165"/>
-      <c r="K25" s="165"/>
-      <c r="L25" s="165"/>
-      <c r="M25" s="165"/>
-      <c r="N25" s="166"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="180"/>
-    </row>
-    <row r="26" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="174"/>
-      <c r="B26" s="181" t="s">
+      <c r="C25" s="143"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="144"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="150"/>
+    </row>
+    <row r="26" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="98"/>
+      <c r="B26" s="152" t="s">
         <v>105</v>
       </c>
-      <c r="C26" s="175"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="176"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="176"/>
-      <c r="K26" s="176"/>
-      <c r="L26" s="176"/>
-      <c r="M26" s="176"/>
-      <c r="N26" s="177"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="180"/>
-    </row>
-    <row r="27" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="174" t="s">
+      <c r="C26" s="143"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="145"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="150"/>
+    </row>
+    <row r="27" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="181" t="s">
+      <c r="B27" s="152" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="175"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="176"/>
-      <c r="K27" s="176"/>
-      <c r="L27" s="176"/>
-      <c r="M27" s="176"/>
-      <c r="N27" s="177"/>
-      <c r="O27" s="110"/>
-      <c r="P27" s="178"/>
-    </row>
-    <row r="28" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="174"/>
-      <c r="B28" s="120" t="s">
+      <c r="C27" s="143"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="144"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="97"/>
+    </row>
+    <row r="28" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="98"/>
+      <c r="B28" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="175"/>
-      <c r="D28" s="176"/>
-      <c r="E28" s="176"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="176"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="176"/>
-      <c r="K28" s="176"/>
-      <c r="L28" s="176"/>
-      <c r="M28" s="176"/>
-      <c r="N28" s="177"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="180"/>
-    </row>
-    <row r="29" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="174" t="s">
+      <c r="C28" s="143"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="144"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="150"/>
+    </row>
+    <row r="29" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="120" t="s">
+      <c r="B29" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="175"/>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="176"/>
-      <c r="M29" s="176"/>
-      <c r="N29" s="177"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="178"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="97"/>
     </row>
     <row r="30" spans="1:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="105" t="s">
+      <c r="B30" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="106">
+      <c r="C30" s="93">
         <f t="shared" ref="C30:N30" si="0">SUM(C6:C27)</f>
         <v>0</v>
       </c>
-      <c r="D30" s="107">
+      <c r="D30" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="107">
+      <c r="E30" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F30" s="107">
+      <c r="F30" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G30" s="107">
+      <c r="G30" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30" s="108">
+      <c r="H30" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I30" s="109">
+      <c r="I30" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="107">
+      <c r="J30" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K30" s="107">
+      <c r="K30" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L30" s="107">
+      <c r="L30" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M30" s="107">
+      <c r="M30" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N30" s="108">
+      <c r="N30" s="95">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O30" s="110"/>
-      <c r="P30" s="111"/>
+      <c r="O30" s="97"/>
     </row>
     <row r="31" spans="1:16" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="163" t="s">
+      <c r="B31" s="142" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="175"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
-      <c r="M31" s="183"/>
-      <c r="N31" s="184"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="111"/>
+      <c r="C31" s="143"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="153"/>
+      <c r="M31" s="153"/>
+      <c r="N31" s="154"/>
+      <c r="O31" s="97"/>
     </row>
     <row r="32" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="104" t="s">
+      <c r="A32" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="163" t="s">
+      <c r="B32" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="175"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="176"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="185"/>
-      <c r="K32" s="185"/>
-      <c r="L32" s="185"/>
-      <c r="M32" s="185"/>
-      <c r="N32" s="186"/>
-      <c r="O32" s="110"/>
-      <c r="P32" s="111"/>
+      <c r="C32" s="143"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="97"/>
     </row>
     <row r="33" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="104" t="s">
+      <c r="A33" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="163" t="s">
+      <c r="B33" s="142" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="175"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="185"/>
-      <c r="K33" s="185"/>
-      <c r="L33" s="185"/>
-      <c r="M33" s="185"/>
-      <c r="N33" s="186"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="172"/>
+      <c r="C33" s="143"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="155"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="150"/>
     </row>
     <row r="34" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="171" t="s">
+      <c r="B34" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="175"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="187"/>
-      <c r="K34" s="187"/>
-      <c r="L34" s="187"/>
-      <c r="M34" s="187"/>
-      <c r="N34" s="186"/>
-      <c r="O34" s="110"/>
-      <c r="P34" s="172"/>
+      <c r="C34" s="143"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="156"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="156"/>
+      <c r="N34" s="155"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="150"/>
     </row>
     <row r="35" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="175"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="176"/>
-      <c r="H35" s="177"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="187"/>
-      <c r="K35" s="187"/>
-      <c r="L35" s="187"/>
-      <c r="M35" s="187"/>
-      <c r="N35" s="186"/>
-      <c r="O35" s="110"/>
-      <c r="P35" s="172"/>
-    </row>
-    <row r="36" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="174" t="s">
+      <c r="C35" s="143"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="156"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="156"/>
+      <c r="M35" s="156"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="150"/>
+    </row>
+    <row r="36" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="171" t="s">
+      <c r="B36" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="175"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="177"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="187"/>
-      <c r="L36" s="187"/>
-      <c r="M36" s="187"/>
-      <c r="N36" s="186"/>
-      <c r="O36" s="110"/>
-      <c r="P36" s="180"/>
-    </row>
-    <row r="37" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="174"/>
-      <c r="B37" s="163" t="s">
+      <c r="C36" s="143"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="156"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="156"/>
+      <c r="M36" s="156"/>
+      <c r="N36" s="155"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="150"/>
+    </row>
+    <row r="37" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="98"/>
+      <c r="B37" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="175"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="177"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="187"/>
-      <c r="K37" s="187"/>
-      <c r="L37" s="187"/>
-      <c r="M37" s="187"/>
-      <c r="N37" s="186"/>
-      <c r="O37" s="110"/>
-      <c r="P37" s="180"/>
-    </row>
-    <row r="38" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="174" t="s">
+      <c r="C37" s="143"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="156"/>
+      <c r="K37" s="156"/>
+      <c r="L37" s="156"/>
+      <c r="M37" s="156"/>
+      <c r="N37" s="155"/>
+      <c r="O37" s="97"/>
+      <c r="P37" s="150"/>
+    </row>
+    <row r="38" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="175"/>
-      <c r="D38" s="176"/>
-      <c r="E38" s="176"/>
-      <c r="F38" s="176"/>
-      <c r="G38" s="176"/>
-      <c r="H38" s="177"/>
-      <c r="I38" s="182"/>
-      <c r="J38" s="185"/>
-      <c r="K38" s="185"/>
-      <c r="L38" s="185"/>
-      <c r="M38" s="185"/>
-      <c r="N38" s="186"/>
-      <c r="O38" s="110"/>
-      <c r="P38" s="178"/>
-    </row>
-    <row r="39" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="174"/>
-      <c r="B39" s="188" t="s">
+      <c r="C38" s="143"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="144"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="147"/>
+      <c r="K38" s="147"/>
+      <c r="L38" s="147"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="155"/>
+      <c r="O38" s="97"/>
+    </row>
+    <row r="39" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="98"/>
+      <c r="B39" s="157" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="175"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="177"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="187"/>
-      <c r="K39" s="187"/>
-      <c r="L39" s="187"/>
-      <c r="M39" s="187"/>
-      <c r="N39" s="186"/>
-      <c r="O39" s="110"/>
-      <c r="P39" s="180"/>
-    </row>
-    <row r="40" spans="1:16" s="34" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="174" t="s">
+      <c r="C39" s="143"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="144"/>
+      <c r="J39" s="156"/>
+      <c r="K39" s="156"/>
+      <c r="L39" s="156"/>
+      <c r="M39" s="156"/>
+      <c r="N39" s="155"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="150"/>
+    </row>
+    <row r="40" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="188" t="s">
+      <c r="B40" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="175"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="176"/>
-      <c r="F40" s="176"/>
-      <c r="G40" s="176"/>
-      <c r="H40" s="177"/>
-      <c r="I40" s="182"/>
-      <c r="J40" s="185"/>
-      <c r="K40" s="185"/>
-      <c r="L40" s="185"/>
-      <c r="M40" s="185"/>
-      <c r="N40" s="186"/>
-      <c r="O40" s="110"/>
-      <c r="P40" s="178"/>
+      <c r="C40" s="143"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="144"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="144"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="147"/>
+      <c r="K40" s="147"/>
+      <c r="L40" s="147"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="155"/>
+      <c r="O40" s="97"/>
     </row>
     <row r="41" spans="1:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="112" t="s">
+      <c r="A41" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="105" t="s">
+      <c r="B41" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="106">
+      <c r="C41" s="93">
         <f>SUM(C31:C38)</f>
         <v>0</v>
       </c>
-      <c r="D41" s="107">
+      <c r="D41" s="94">
         <f t="shared" ref="D41:N41" si="1">SUM(D31:D38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="107">
+      <c r="E41" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="107">
+      <c r="F41" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G41" s="107">
+      <c r="G41" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H41" s="108">
+      <c r="H41" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I41" s="106">
+      <c r="I41" s="93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J41" s="107">
+      <c r="J41" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K41" s="107">
+      <c r="K41" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L41" s="107">
+      <c r="L41" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M41" s="107">
+      <c r="M41" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N41" s="107">
+      <c r="N41" s="94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O41" s="110"/>
+      <c r="O41" s="97"/>
     </row>
     <row r="42" spans="1:16" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="112" t="s">
+      <c r="A42" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="114">
+      <c r="C42" s="100">
         <f>SUM(C30,C41)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="115">
+      <c r="D42" s="101">
         <f t="shared" ref="D42:N42" si="2">SUM(D30,D41)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="115">
+      <c r="E42" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F42" s="115">
+      <c r="F42" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G42" s="115">
+      <c r="G42" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H42" s="116">
+      <c r="H42" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I42" s="114">
+      <c r="I42" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J42" s="115">
+      <c r="J42" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K42" s="115">
+      <c r="K42" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L42" s="115">
+      <c r="L42" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M42" s="115">
+      <c r="M42" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N42" s="115">
+      <c r="N42" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O42" s="110"/>
+      <c r="O42" s="97"/>
     </row>
     <row r="43" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="225" t="s">
+      <c r="B43" s="192" t="s">
         <v>114</v>
       </c>
-      <c r="C43" s="226"/>
-      <c r="D43" s="226"/>
-      <c r="E43" s="226"/>
-      <c r="F43" s="226"/>
-      <c r="G43" s="226"/>
-      <c r="H43" s="226"/>
-      <c r="I43" s="226"/>
-      <c r="J43" s="226"/>
-      <c r="K43" s="226"/>
-      <c r="L43" s="226"/>
-      <c r="M43" s="189"/>
-      <c r="N43" s="189"/>
-      <c r="O43" s="190"/>
+      <c r="C43" s="193"/>
+      <c r="D43" s="193"/>
+      <c r="E43" s="193"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="193"/>
+      <c r="H43" s="193"/>
+      <c r="I43" s="193"/>
+      <c r="J43" s="193"/>
+      <c r="K43" s="193"/>
+      <c r="L43" s="193"/>
+      <c r="M43" s="158"/>
+      <c r="N43" s="158"/>
+      <c r="O43" s="158"/>
     </row>
     <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="227" t="str">
+      <c r="B44" s="194" t="str">
         <f>IF(F1="%","註2：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>註2：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。</v>
       </c>
-      <c r="C44" s="228"/>
-      <c r="D44" s="228"/>
-      <c r="E44" s="228"/>
-      <c r="F44" s="228"/>
-      <c r="G44" s="228"/>
-      <c r="H44" s="228"/>
-      <c r="I44" s="228"/>
-      <c r="J44" s="228"/>
-      <c r="K44" s="228"/>
-      <c r="L44" s="228"/>
-      <c r="M44" s="228"/>
-      <c r="N44" s="228"/>
-      <c r="O44" s="191"/>
-      <c r="P44" s="191"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C45" s="111"/>
+      <c r="C44" s="195"/>
+      <c r="D44" s="195"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="195"/>
+      <c r="G44" s="195"/>
+      <c r="H44" s="195"/>
+      <c r="I44" s="195"/>
+      <c r="J44" s="195"/>
+      <c r="K44" s="195"/>
+      <c r="L44" s="195"/>
+      <c r="M44" s="195"/>
+      <c r="N44" s="195"/>
+      <c r="O44" s="159"/>
+      <c r="P44" s="159"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C46" s="111"/>
-      <c r="H46" s="192"/>
-      <c r="N46" s="192"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C47" s="111"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C48" s="111"/>
+      <c r="H46" s="160"/>
+      <c r="N46" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6781,210 +6577,208 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5" style="18" customWidth="1"/>
-    <col min="2" max="2" width="35.625" style="18" customWidth="1"/>
-    <col min="3" max="4" width="28.125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="9" style="23"/>
-    <col min="8" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="7.5" style="13" customWidth="1"/>
+    <col min="2" max="2" width="35.625" style="13" customWidth="1"/>
+    <col min="3" max="4" width="28.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10.875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18">
+      <c r="A1" s="13">
         <v>8</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="F1" s="105" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="17" customFormat="1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="229" t="str">
+    <row r="2" spans="1:12" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="196" t="str">
         <f>"附表4　國內期貨市場主要期貨商"&amp;IF(F1="1","於盤後交易時段",IF(F1="0","於一般交易時段",""))&amp;A1&amp;"月市占率概況表(依成交量排序)"</f>
         <v>附表4　國內期貨市場主要期貨商8月市占率概況表(依成交量排序)</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="18">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="18">
         <v>2</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="18">
         <v>3</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="18">
         <v>4</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="18">
         <v>5</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="18">
         <v>6</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="18">
         <v>7</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="18">
         <v>8</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="18">
         <v>9</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="18">
         <v>10</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="14" spans="1:12" s="17" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33" t="str">
+      <c r="B13" s="16"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="str">
         <f>IF(F1="%","註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B15"/>
@@ -7040,44 +6834,41 @@
       <c r="D23"/>
       <c r="E23"/>
     </row>
-    <row r="24" spans="1:12" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
+    <row r="24" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-    </row>
-    <row r="25" spans="1:12" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+    </row>
+    <row r="25" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-    </row>
-    <row r="26" spans="1:12" s="19" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="1:12" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7096,7 +6887,7 @@
   <sheetPr codeName="Sheet32">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -7104,206 +6895,201 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="36" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="6.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+    <row r="1" spans="1:6" ht="46.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>8</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="49" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="str">
+    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="str">
         <f>"附表5　國內期貨市場期貨商"&amp;A1&amp;"月成交量成長暨衰退概況表"&amp;IF(F1="1","(盤後交易時段)",IF(F1="0","(一般交易時段)",""))</f>
         <v>附表5　國內期貨市場期貨商8月成交量成長暨衰退概況表</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="36" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38" t="s">
+    <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="42" t="str">
+      <c r="C4" s="33" t="str">
         <f>IF(A1-1 &lt; 1, A1-1+12, A1 - 1) &amp;  "月成交量"</f>
         <v>7月成交量</v>
       </c>
-      <c r="D4" s="42" t="str">
+      <c r="D4" s="33" t="str">
         <f>A1&amp;"月成交量"</f>
         <v>8月成交量</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="44">
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="34">
         <v>1</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="48" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
         <v>2</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="38"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
         <v>3</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-    </row>
-    <row r="8" spans="1:9" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="38"/>
+    </row>
+    <row r="8" spans="1:6" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="40"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="42" t="str">
+      <c r="C9" s="33" t="str">
         <f>IF(A1-1 &lt; 1, A1-1+12, A1 - 1) &amp;  "月成交量"</f>
         <v>7月成交量</v>
       </c>
-      <c r="D9" s="42" t="str">
+      <c r="D9" s="33" t="str">
         <f>A1&amp;"月成交量"</f>
         <v>8月成交量</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="33" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="44">
+    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
         <v>1</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="44">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
         <v>2</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="53">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="41">
         <v>3</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-    </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="231" t="str">
+      <c r="B12" s="35"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="198" t="str">
         <f>IF(F1="%","註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。</v>
       </c>
-      <c r="B13" s="231" t="e">
+      <c r="B13" s="198" t="e">
         <f>IF(#REF!="%","註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>#REF!</v>
       </c>
-      <c r="C13" s="231" t="e">
+      <c r="C13" s="198" t="e">
         <f>IF(#REF!="%","註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>#REF!</v>
       </c>
-      <c r="D13" s="231" t="e">
+      <c r="D13" s="198" t="e">
         <f>IF(#REF!="%","註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>#REF!</v>
       </c>
-      <c r="E13" s="231" t="e">
+      <c r="E13" s="198" t="e">
         <f>IF(#REF!="%","註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>#REF!</v>
       </c>
-      <c r="F13" s="231" t="e">
+      <c r="F13" s="198" t="e">
         <f>IF(#REF!="%","註：自106年5月起，本表之統計數據涵蓋一般交易時段及盤後交易時段。","")</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="57"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-    </row>
-    <row r="17" spans="2:5" s="54" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="44"/>
+    </row>
+    <row r="17" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
     </row>
     <row r="20" spans="2:5" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20"/>
